--- a/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1078746366599148</v>
+        <v>0.1078746366595027</v>
       </c>
       <c r="D2">
-        <v>0.3611784975970522</v>
+        <v>0.3611784975972228</v>
       </c>
       <c r="E2">
-        <v>0.04929625820001249</v>
+        <v>0.04929625819998051</v>
       </c>
       <c r="F2">
         <v>7.508970979513066</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.005808740843722848</v>
+        <v>0.005808740843718851</v>
       </c>
       <c r="J2">
         <v>8.744578112410466</v>
       </c>
       <c r="K2">
-        <v>0.08017571308533533</v>
+        <v>0.08017571308532467</v>
       </c>
       <c r="L2">
-        <v>5.199850491097919</v>
+        <v>5.199850491097934</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09028055581249816</v>
+        <v>0.09028055581171657</v>
       </c>
       <c r="D3">
-        <v>0.2937233669289441</v>
+        <v>0.2937233669291857</v>
       </c>
       <c r="E3">
-        <v>0.04287249724398556</v>
+        <v>0.0428724972439678</v>
       </c>
       <c r="F3">
-        <v>6.245533170556627</v>
+        <v>6.24553317055657</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007101541055549054</v>
+        <v>0.007101541055563043</v>
       </c>
       <c r="J3">
         <v>7.363690933461442</v>
       </c>
       <c r="K3">
-        <v>0.06792234140259978</v>
+        <v>0.06792234140260689</v>
       </c>
       <c r="L3">
-        <v>4.381292809400534</v>
+        <v>4.381292809400492</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08039972717654109</v>
+        <v>0.08039972717620003</v>
       </c>
       <c r="D4">
-        <v>0.2576121526461179</v>
+        <v>0.2576121526463169</v>
       </c>
       <c r="E4">
-        <v>0.03913794279076832</v>
+        <v>0.03913794279078786</v>
       </c>
       <c r="F4">
-        <v>5.556306345486149</v>
+        <v>5.556306345486178</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008022621361116977</v>
+        <v>0.008022621361144067</v>
       </c>
       <c r="J4">
         <v>6.568011741767577</v>
       </c>
       <c r="K4">
-        <v>0.06085063106985444</v>
+        <v>0.060850631069858</v>
       </c>
       <c r="L4">
         <v>3.910196986143006</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07655007114563261</v>
+        <v>0.07655007114635737</v>
       </c>
       <c r="D5">
-        <v>0.2439109120877134</v>
+        <v>0.2439109120873866</v>
       </c>
       <c r="E5">
-        <v>0.03765429633324402</v>
+        <v>0.03765429633321382</v>
       </c>
       <c r="F5">
-        <v>5.292102511369251</v>
+        <v>5.292102511369194</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.008424635916030487</v>
+        <v>0.008424635916045364</v>
       </c>
       <c r="J5">
         <v>6.253644468476722</v>
       </c>
       <c r="K5">
-        <v>0.0580525936796974</v>
+        <v>0.05805259367968674</v>
       </c>
       <c r="L5">
-        <v>3.724200264073815</v>
+        <v>3.724200264073787</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07592021979260721</v>
+        <v>0.07592021979233721</v>
       </c>
       <c r="D6">
-        <v>0.2416895868043554</v>
+        <v>0.241689586804668</v>
       </c>
       <c r="E6">
-        <v>0.03740990778181619</v>
+        <v>0.03740990778167408</v>
       </c>
       <c r="F6">
-        <v>5.249117808342589</v>
+        <v>5.249117808342731</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.008492874895280611</v>
+        <v>0.008492874895273061</v>
       </c>
       <c r="J6">
-        <v>6.201963801187389</v>
+        <v>6.201963801187446</v>
       </c>
       <c r="K6">
-        <v>0.05759233737420288</v>
+        <v>0.05759233737420644</v>
       </c>
       <c r="L6">
-        <v>3.69363070987832</v>
+        <v>3.693630709878363</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08034715387032065</v>
+        <v>0.08034715387039171</v>
       </c>
       <c r="D7">
-        <v>0.257423616044818</v>
+        <v>0.2574236160449033</v>
       </c>
       <c r="E7">
-        <v>0.03911779487694567</v>
+        <v>0.03911779487691192</v>
       </c>
       <c r="F7">
-        <v>5.552681339203559</v>
+        <v>5.552681339203389</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.008027940962787916</v>
+        <v>0.008027940962783697</v>
       </c>
       <c r="J7">
-        <v>6.563735657509682</v>
+        <v>6.563735657509653</v>
       </c>
       <c r="K7">
-        <v>0.06081258943640222</v>
+        <v>0.06081258943637025</v>
       </c>
       <c r="L7">
-        <v>3.907666506317327</v>
+        <v>3.907666506317284</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1015775784897954</v>
+        <v>0.1015775784902502</v>
       </c>
       <c r="D8">
-        <v>0.3365887598476007</v>
+        <v>0.3365887598474444</v>
       </c>
       <c r="E8">
-        <v>0.04702736003222086</v>
+        <v>0.04702736003218888</v>
       </c>
       <c r="F8">
-        <v>7.05173032531917</v>
+        <v>7.051730325319085</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.006224251342816567</v>
+        <v>0.006224251342814791</v>
       </c>
       <c r="J8">
-        <v>8.255300538617746</v>
+        <v>8.255300538617661</v>
       </c>
       <c r="K8">
-        <v>0.07583549559588576</v>
+        <v>0.07583549559586089</v>
       </c>
       <c r="L8">
-        <v>4.909688213024211</v>
+        <v>4.909688213024168</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1546108400240769</v>
+        <v>0.1546108400239916</v>
       </c>
       <c r="D9">
-        <v>0.5581694250908242</v>
+        <v>0.5581694250909379</v>
       </c>
       <c r="E9">
-        <v>0.06531806329706313</v>
+        <v>0.06531806329713064</v>
       </c>
       <c r="F9">
-        <v>11.05973311946883</v>
+        <v>11.05973311946917</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004098169731574508</v>
+        <v>0.004098169731607815</v>
       </c>
       <c r="J9">
-        <v>12.22710103851276</v>
+        <v>12.22710103851287</v>
       </c>
       <c r="K9">
-        <v>0.1111419608103219</v>
+        <v>0.1111419608103574</v>
       </c>
       <c r="L9">
-        <v>7.268363690054457</v>
+        <v>7.268363690054542</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2136717777169252</v>
+        <v>0.2136717777171384</v>
       </c>
       <c r="D10">
-        <v>0.8418117009474031</v>
+        <v>0.841811700947602</v>
       </c>
       <c r="E10">
-        <v>0.08426690961405825</v>
+        <v>0.08426690961402628</v>
       </c>
       <c r="F10">
         <v>15.90159896463308</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.004707509824292799</v>
+        <v>0.004707509824309675</v>
       </c>
       <c r="J10">
-        <v>16.31603621016652</v>
+        <v>16.31603621016657</v>
       </c>
       <c r="K10">
-        <v>0.1481490137550487</v>
+        <v>0.1481490137550949</v>
       </c>
       <c r="L10">
-        <v>9.70130086906093</v>
+        <v>9.701300869060873</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2586354025639963</v>
+        <v>0.2586354025641242</v>
       </c>
       <c r="D11">
-        <v>1.084302513542553</v>
+        <v>1.084302513542241</v>
       </c>
       <c r="E11">
-        <v>0.09841714555723868</v>
+        <v>0.09841714555726355</v>
       </c>
       <c r="F11">
-        <v>19.84050495447593</v>
+        <v>19.84050495447667</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0.00685229139698329</v>
       </c>
       <c r="J11">
-        <v>19.23544671921383</v>
+        <v>19.23544671921428</v>
       </c>
       <c r="K11">
-        <v>0.1755754211619802</v>
+        <v>0.1755754211619767</v>
       </c>
       <c r="L11">
-        <v>11.4380304019891</v>
+        <v>11.43803040198932</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2886277469637406</v>
+        <v>0.2886277469638969</v>
       </c>
       <c r="D12">
-        <v>1.26010256594509</v>
+        <v>1.260102565945601</v>
       </c>
       <c r="E12">
-        <v>0.1080750877619323</v>
+        <v>0.108075087761911</v>
       </c>
       <c r="F12">
-        <v>22.59430886315977</v>
+        <v>22.59430886315829</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.009001574951748914</v>
+        <v>0.009001574951779112</v>
       </c>
       <c r="J12">
-        <v>21.10208858563121</v>
+        <v>21.1020885856303</v>
       </c>
       <c r="K12">
-        <v>0.193898186992957</v>
+        <v>0.1938981869930068</v>
       </c>
       <c r="L12">
-        <v>12.5465056837354</v>
+        <v>12.54650568373489</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2804399117296157</v>
+        <v>0.2804399117298146</v>
       </c>
       <c r="D13">
-        <v>1.210909315634268</v>
+        <v>1.210909315634694</v>
       </c>
       <c r="E13">
-        <v>0.1054034802775412</v>
+        <v>0.1054034802775519</v>
       </c>
       <c r="F13">
-        <v>21.83200369784714</v>
+        <v>21.83200369784743</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.008359805306225709</v>
+        <v>0.008359805306215939</v>
       </c>
       <c r="J13">
-        <v>20.59845300597183</v>
+        <v>20.598453005972</v>
       </c>
       <c r="K13">
-        <v>0.1888753379984607</v>
+        <v>0.188875337998514</v>
       </c>
       <c r="L13">
-        <v>12.24768039979813</v>
+        <v>12.24768039979821</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2605703610711174</v>
+        <v>0.26057036107062</v>
       </c>
       <c r="D14">
         <v>1.095288288462882</v>
       </c>
       <c r="E14">
-        <v>0.09903135355756376</v>
+        <v>0.09903135355762771</v>
       </c>
       <c r="F14">
-        <v>20.01502174375838</v>
+        <v>20.0150217437581</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.006974082102580326</v>
+        <v>0.006974082102567003</v>
       </c>
       <c r="J14">
-        <v>19.35772540523016</v>
+        <v>19.35772540522998</v>
       </c>
       <c r="K14">
-        <v>0.1767530373018893</v>
+        <v>0.1767530373019497</v>
       </c>
       <c r="L14">
-        <v>11.51071114051615</v>
+        <v>11.51071114051612</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2510253684895503</v>
+        <v>0.2510253684894792</v>
       </c>
       <c r="D15">
-        <v>1.041552178579593</v>
+        <v>1.041552178579195</v>
       </c>
       <c r="E15">
-        <v>0.09600922458745487</v>
+        <v>0.09600922458733407</v>
       </c>
       <c r="F15">
-        <v>19.15823234991001</v>
+        <v>19.15823234990927</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.00639629701868305</v>
+        <v>0.00639629701866351</v>
       </c>
       <c r="J15">
-        <v>18.7519522743242</v>
+        <v>18.75195227432371</v>
       </c>
       <c r="K15">
-        <v>0.1709455825189963</v>
+        <v>0.1709455825189714</v>
       </c>
       <c r="L15">
-        <v>11.15057976134722</v>
+        <v>11.15057976134696</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2113931164433609</v>
+        <v>0.2113931164434319</v>
       </c>
       <c r="D16">
-        <v>0.8301505931129327</v>
+        <v>0.8301505931132738</v>
       </c>
       <c r="E16">
-        <v>0.08354973845793268</v>
+        <v>0.08354973845798241</v>
       </c>
       <c r="F16">
-        <v>15.70781559893476</v>
+        <v>15.7078155989351</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.004635187223589909</v>
+        <v>0.004635187223630322</v>
       </c>
       <c r="J16">
-        <v>16.16390191318391</v>
+        <v>16.16390191318411</v>
       </c>
       <c r="K16">
-        <v>0.1467490749881577</v>
+        <v>0.1467490749881399</v>
       </c>
       <c r="L16">
-        <v>9.610756626707087</v>
+        <v>9.6107566267072</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,13 +988,13 @@
         <v>0.1932836135110421</v>
       </c>
       <c r="D17">
-        <v>0.739545279236296</v>
+        <v>0.7395452792366655</v>
       </c>
       <c r="E17">
-        <v>0.07782407454022078</v>
+        <v>0.07782407454021367</v>
       </c>
       <c r="F17">
-        <v>14.18751608360458</v>
+        <v>14.18751608360469</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.004193110727866767</v>
+        <v>0.004193110727870764</v>
       </c>
       <c r="J17">
-        <v>14.93947774073587</v>
+        <v>14.93947774073595</v>
       </c>
       <c r="K17">
-        <v>0.1355598658493733</v>
+        <v>0.1355598658494053</v>
       </c>
       <c r="L17">
-        <v>8.882025242731999</v>
+        <v>8.882025242732027</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1840541959027604</v>
+        <v>0.1840541959031725</v>
       </c>
       <c r="D18">
-        <v>0.6947681749785204</v>
+        <v>0.6947681749784635</v>
       </c>
       <c r="E18">
-        <v>0.07488097970750474</v>
+        <v>0.0748809797075296</v>
       </c>
       <c r="F18">
-        <v>13.42624776596801</v>
+        <v>13.4262477659683</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.004061610734407139</v>
+        <v>0.004061610734453325</v>
       </c>
       <c r="J18">
-        <v>14.30462531408654</v>
+        <v>14.30462531408665</v>
       </c>
       <c r="K18">
-        <v>0.1298056226472823</v>
+        <v>0.1298056226472504</v>
       </c>
       <c r="L18">
-        <v>8.504221188409844</v>
+        <v>8.5042211884099</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1810849315917409</v>
+        <v>0.1810849315912719</v>
       </c>
       <c r="D19">
-        <v>0.6805618285443984</v>
+        <v>0.6805618285441426</v>
       </c>
       <c r="E19">
-        <v>0.073929497295385</v>
+        <v>0.0739294972953175</v>
       </c>
       <c r="F19">
-        <v>13.18328913787678</v>
+        <v>13.18328913787707</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.004033277695526749</v>
+        <v>0.004033277695566717</v>
       </c>
       <c r="J19">
-        <v>14.09877387827478</v>
+        <v>14.0987738782749</v>
       </c>
       <c r="K19">
-        <v>0.1279457227528482</v>
+        <v>0.1279457227527843</v>
       </c>
       <c r="L19">
-        <v>8.381728586663371</v>
+        <v>8.381728586663428</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1950754108071209</v>
+        <v>0.1950754108071067</v>
       </c>
       <c r="D20">
-        <v>0.7483472568666514</v>
+        <v>0.7483472568668219</v>
       </c>
       <c r="E20">
-        <v>0.07839317793368394</v>
+        <v>0.07839317793370171</v>
       </c>
       <c r="F20">
-        <v>14.33637083686307</v>
+        <v>14.33637083686324</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.004226123763822809</v>
+        <v>0.004226123763783729</v>
       </c>
       <c r="J20">
-        <v>15.06186492396941</v>
+        <v>15.06186492396932</v>
       </c>
       <c r="K20">
-        <v>0.1366725828231061</v>
+        <v>0.1366725828230813</v>
       </c>
       <c r="L20">
-        <v>8.954862939220135</v>
+        <v>8.954862939220163</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2657060990944444</v>
+        <v>0.2657060990942597</v>
       </c>
       <c r="D21">
-        <v>1.124678093698492</v>
+        <v>1.124678093698805</v>
       </c>
       <c r="E21">
-        <v>0.1006661957239707</v>
+        <v>0.1006661957239494</v>
       </c>
       <c r="F21">
-        <v>20.48028582137772</v>
+        <v>20.48028582137715</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.007308740293431981</v>
+        <v>0.007308740293487048</v>
       </c>
       <c r="J21">
-        <v>19.68100483046982</v>
+        <v>19.68100483046948</v>
       </c>
       <c r="K21">
-        <v>0.179880271981915</v>
+        <v>0.1798802719819221</v>
       </c>
       <c r="L21">
-        <v>11.70282593416832</v>
+        <v>11.70282593416815</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2657060990944444</v>
+        <v>0.2657060990942597</v>
       </c>
       <c r="D22">
-        <v>1.124678093698492</v>
+        <v>1.124678093698805</v>
       </c>
       <c r="E22">
-        <v>0.1006661957239707</v>
+        <v>0.1006661957239494</v>
       </c>
       <c r="F22">
-        <v>20.48028582137772</v>
+        <v>20.48028582137715</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.007308740293431981</v>
+        <v>0.007308740293487048</v>
       </c>
       <c r="J22">
-        <v>19.68100483046982</v>
+        <v>19.68100483046948</v>
       </c>
       <c r="K22">
-        <v>0.179880271981915</v>
+        <v>0.1798802719819221</v>
       </c>
       <c r="L22">
-        <v>11.70282593416832</v>
+        <v>11.70282593416815</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2657060990944444</v>
+        <v>0.2657060990942597</v>
       </c>
       <c r="D23">
-        <v>1.124678093698492</v>
+        <v>1.124678093698805</v>
       </c>
       <c r="E23">
-        <v>0.1006661957239707</v>
+        <v>0.1006661957239494</v>
       </c>
       <c r="F23">
-        <v>20.48028582137772</v>
+        <v>20.48028582137715</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.007308740293431981</v>
+        <v>0.007308740293487048</v>
       </c>
       <c r="J23">
-        <v>19.68100483046982</v>
+        <v>19.68100483046948</v>
       </c>
       <c r="K23">
-        <v>0.179880271981915</v>
+        <v>0.1798802719819221</v>
       </c>
       <c r="L23">
-        <v>11.70282593416832</v>
+        <v>11.70282593416815</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2657060990944444</v>
+        <v>0.2657060990942597</v>
       </c>
       <c r="D24">
-        <v>1.124678093698492</v>
+        <v>1.124678093698805</v>
       </c>
       <c r="E24">
-        <v>0.1006661957239707</v>
+        <v>0.1006661957239494</v>
       </c>
       <c r="F24">
-        <v>20.48028582137772</v>
+        <v>20.48028582137715</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.007308740293431981</v>
+        <v>0.007308740293487048</v>
       </c>
       <c r="J24">
-        <v>19.68100483046982</v>
+        <v>19.68100483046948</v>
       </c>
       <c r="K24">
-        <v>0.179880271981915</v>
+        <v>0.1798802719819221</v>
       </c>
       <c r="L24">
-        <v>11.70282593416832</v>
+        <v>11.70282593416815</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2657060990944444</v>
+        <v>0.2657060990942597</v>
       </c>
       <c r="D25">
-        <v>1.124678093698492</v>
+        <v>1.124678093698805</v>
       </c>
       <c r="E25">
-        <v>0.1006661957239707</v>
+        <v>0.1006661957239494</v>
       </c>
       <c r="F25">
-        <v>20.48028582137772</v>
+        <v>20.48028582137715</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.007308740293431981</v>
+        <v>0.007308740293487048</v>
       </c>
       <c r="J25">
-        <v>19.68100483046982</v>
+        <v>19.68100483046948</v>
       </c>
       <c r="K25">
-        <v>0.179880271981915</v>
+        <v>0.1798802719819221</v>
       </c>
       <c r="L25">
-        <v>11.70282593416832</v>
+        <v>11.70282593416815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1078746366595027</v>
+        <v>0.1078746366599148</v>
       </c>
       <c r="D2">
-        <v>0.3611784975972228</v>
+        <v>0.3611784975970522</v>
       </c>
       <c r="E2">
-        <v>0.04929625819998051</v>
+        <v>0.04929625820001249</v>
       </c>
       <c r="F2">
         <v>7.508970979513066</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.005808740843718851</v>
+        <v>0.005808740843722848</v>
       </c>
       <c r="J2">
         <v>8.744578112410466</v>
       </c>
       <c r="K2">
-        <v>0.08017571308532467</v>
+        <v>0.08017571308533533</v>
       </c>
       <c r="L2">
-        <v>5.199850491097934</v>
+        <v>5.199850491097919</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09028055581171657</v>
+        <v>0.09028055581249816</v>
       </c>
       <c r="D3">
-        <v>0.2937233669291857</v>
+        <v>0.2937233669289441</v>
       </c>
       <c r="E3">
-        <v>0.0428724972439678</v>
+        <v>0.04287249724398556</v>
       </c>
       <c r="F3">
-        <v>6.24553317055657</v>
+        <v>6.245533170556627</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007101541055563043</v>
+        <v>0.007101541055549054</v>
       </c>
       <c r="J3">
         <v>7.363690933461442</v>
       </c>
       <c r="K3">
-        <v>0.06792234140260689</v>
+        <v>0.06792234140259978</v>
       </c>
       <c r="L3">
-        <v>4.381292809400492</v>
+        <v>4.381292809400534</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08039972717620003</v>
+        <v>0.08039972717654109</v>
       </c>
       <c r="D4">
-        <v>0.2576121526463169</v>
+        <v>0.2576121526461179</v>
       </c>
       <c r="E4">
-        <v>0.03913794279078786</v>
+        <v>0.03913794279076832</v>
       </c>
       <c r="F4">
-        <v>5.556306345486178</v>
+        <v>5.556306345486149</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008022621361144067</v>
+        <v>0.008022621361116977</v>
       </c>
       <c r="J4">
         <v>6.568011741767577</v>
       </c>
       <c r="K4">
-        <v>0.060850631069858</v>
+        <v>0.06085063106985444</v>
       </c>
       <c r="L4">
         <v>3.910196986143006</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07655007114635737</v>
+        <v>0.07655007114563261</v>
       </c>
       <c r="D5">
-        <v>0.2439109120873866</v>
+        <v>0.2439109120877134</v>
       </c>
       <c r="E5">
-        <v>0.03765429633321382</v>
+        <v>0.03765429633324402</v>
       </c>
       <c r="F5">
-        <v>5.292102511369194</v>
+        <v>5.292102511369251</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.008424635916045364</v>
+        <v>0.008424635916030487</v>
       </c>
       <c r="J5">
         <v>6.253644468476722</v>
       </c>
       <c r="K5">
-        <v>0.05805259367968674</v>
+        <v>0.0580525936796974</v>
       </c>
       <c r="L5">
-        <v>3.724200264073787</v>
+        <v>3.724200264073815</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07592021979233721</v>
+        <v>0.07592021979260721</v>
       </c>
       <c r="D6">
-        <v>0.241689586804668</v>
+        <v>0.2416895868043554</v>
       </c>
       <c r="E6">
-        <v>0.03740990778167408</v>
+        <v>0.03740990778181619</v>
       </c>
       <c r="F6">
-        <v>5.249117808342731</v>
+        <v>5.249117808342589</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.008492874895273061</v>
+        <v>0.008492874895280611</v>
       </c>
       <c r="J6">
-        <v>6.201963801187446</v>
+        <v>6.201963801187389</v>
       </c>
       <c r="K6">
-        <v>0.05759233737420644</v>
+        <v>0.05759233737420288</v>
       </c>
       <c r="L6">
-        <v>3.693630709878363</v>
+        <v>3.69363070987832</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08034715387039171</v>
+        <v>0.08034715387032065</v>
       </c>
       <c r="D7">
-        <v>0.2574236160449033</v>
+        <v>0.257423616044818</v>
       </c>
       <c r="E7">
-        <v>0.03911779487691192</v>
+        <v>0.03911779487694567</v>
       </c>
       <c r="F7">
-        <v>5.552681339203389</v>
+        <v>5.552681339203559</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.008027940962783697</v>
+        <v>0.008027940962787916</v>
       </c>
       <c r="J7">
-        <v>6.563735657509653</v>
+        <v>6.563735657509682</v>
       </c>
       <c r="K7">
-        <v>0.06081258943637025</v>
+        <v>0.06081258943640222</v>
       </c>
       <c r="L7">
-        <v>3.907666506317284</v>
+        <v>3.907666506317327</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1015775784902502</v>
+        <v>0.1015775784897954</v>
       </c>
       <c r="D8">
-        <v>0.3365887598474444</v>
+        <v>0.3365887598476007</v>
       </c>
       <c r="E8">
-        <v>0.04702736003218888</v>
+        <v>0.04702736003222086</v>
       </c>
       <c r="F8">
-        <v>7.051730325319085</v>
+        <v>7.05173032531917</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.006224251342814791</v>
+        <v>0.006224251342816567</v>
       </c>
       <c r="J8">
-        <v>8.255300538617661</v>
+        <v>8.255300538617746</v>
       </c>
       <c r="K8">
-        <v>0.07583549559586089</v>
+        <v>0.07583549559588576</v>
       </c>
       <c r="L8">
-        <v>4.909688213024168</v>
+        <v>4.909688213024211</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1546108400239916</v>
+        <v>0.1546108400240769</v>
       </c>
       <c r="D9">
-        <v>0.5581694250909379</v>
+        <v>0.5581694250908242</v>
       </c>
       <c r="E9">
-        <v>0.06531806329713064</v>
+        <v>0.06531806329706313</v>
       </c>
       <c r="F9">
-        <v>11.05973311946917</v>
+        <v>11.05973311946883</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004098169731607815</v>
+        <v>0.004098169731574508</v>
       </c>
       <c r="J9">
-        <v>12.22710103851287</v>
+        <v>12.22710103851276</v>
       </c>
       <c r="K9">
-        <v>0.1111419608103574</v>
+        <v>0.1111419608103219</v>
       </c>
       <c r="L9">
-        <v>7.268363690054542</v>
+        <v>7.268363690054457</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2136717777171384</v>
+        <v>0.2136717777169252</v>
       </c>
       <c r="D10">
-        <v>0.841811700947602</v>
+        <v>0.8418117009474031</v>
       </c>
       <c r="E10">
-        <v>0.08426690961402628</v>
+        <v>0.08426690961405825</v>
       </c>
       <c r="F10">
         <v>15.90159896463308</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.004707509824309675</v>
+        <v>0.004707509824292799</v>
       </c>
       <c r="J10">
-        <v>16.31603621016657</v>
+        <v>16.31603621016652</v>
       </c>
       <c r="K10">
-        <v>0.1481490137550949</v>
+        <v>0.1481490137550487</v>
       </c>
       <c r="L10">
-        <v>9.701300869060873</v>
+        <v>9.70130086906093</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2586354025641242</v>
+        <v>0.2586354025639963</v>
       </c>
       <c r="D11">
-        <v>1.084302513542241</v>
+        <v>1.084302513542553</v>
       </c>
       <c r="E11">
-        <v>0.09841714555726355</v>
+        <v>0.09841714555723868</v>
       </c>
       <c r="F11">
-        <v>19.84050495447667</v>
+        <v>19.84050495447593</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0.00685229139698329</v>
       </c>
       <c r="J11">
-        <v>19.23544671921428</v>
+        <v>19.23544671921383</v>
       </c>
       <c r="K11">
-        <v>0.1755754211619767</v>
+        <v>0.1755754211619802</v>
       </c>
       <c r="L11">
-        <v>11.43803040198932</v>
+        <v>11.4380304019891</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2886277469638969</v>
+        <v>0.2886277469637406</v>
       </c>
       <c r="D12">
-        <v>1.260102565945601</v>
+        <v>1.26010256594509</v>
       </c>
       <c r="E12">
-        <v>0.108075087761911</v>
+        <v>0.1080750877619323</v>
       </c>
       <c r="F12">
-        <v>22.59430886315829</v>
+        <v>22.59430886315977</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.009001574951779112</v>
+        <v>0.009001574951748914</v>
       </c>
       <c r="J12">
-        <v>21.1020885856303</v>
+        <v>21.10208858563121</v>
       </c>
       <c r="K12">
-        <v>0.1938981869930068</v>
+        <v>0.193898186992957</v>
       </c>
       <c r="L12">
-        <v>12.54650568373489</v>
+        <v>12.5465056837354</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2804399117298146</v>
+        <v>0.2804399117296157</v>
       </c>
       <c r="D13">
-        <v>1.210909315634694</v>
+        <v>1.210909315634268</v>
       </c>
       <c r="E13">
-        <v>0.1054034802775519</v>
+        <v>0.1054034802775412</v>
       </c>
       <c r="F13">
-        <v>21.83200369784743</v>
+        <v>21.83200369784714</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.008359805306215939</v>
+        <v>0.008359805306225709</v>
       </c>
       <c r="J13">
-        <v>20.598453005972</v>
+        <v>20.59845300597183</v>
       </c>
       <c r="K13">
-        <v>0.188875337998514</v>
+        <v>0.1888753379984607</v>
       </c>
       <c r="L13">
-        <v>12.24768039979821</v>
+        <v>12.24768039979813</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.26057036107062</v>
+        <v>0.2605703610711174</v>
       </c>
       <c r="D14">
         <v>1.095288288462882</v>
       </c>
       <c r="E14">
-        <v>0.09903135355762771</v>
+        <v>0.09903135355756376</v>
       </c>
       <c r="F14">
-        <v>20.0150217437581</v>
+        <v>20.01502174375838</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.006974082102567003</v>
+        <v>0.006974082102580326</v>
       </c>
       <c r="J14">
-        <v>19.35772540522998</v>
+        <v>19.35772540523016</v>
       </c>
       <c r="K14">
-        <v>0.1767530373019497</v>
+        <v>0.1767530373018893</v>
       </c>
       <c r="L14">
-        <v>11.51071114051612</v>
+        <v>11.51071114051615</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2510253684894792</v>
+        <v>0.2510253684895503</v>
       </c>
       <c r="D15">
-        <v>1.041552178579195</v>
+        <v>1.041552178579593</v>
       </c>
       <c r="E15">
-        <v>0.09600922458733407</v>
+        <v>0.09600922458745487</v>
       </c>
       <c r="F15">
-        <v>19.15823234990927</v>
+        <v>19.15823234991001</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.00639629701866351</v>
+        <v>0.00639629701868305</v>
       </c>
       <c r="J15">
-        <v>18.75195227432371</v>
+        <v>18.7519522743242</v>
       </c>
       <c r="K15">
-        <v>0.1709455825189714</v>
+        <v>0.1709455825189963</v>
       </c>
       <c r="L15">
-        <v>11.15057976134696</v>
+        <v>11.15057976134722</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2113931164434319</v>
+        <v>0.2113931164433609</v>
       </c>
       <c r="D16">
-        <v>0.8301505931132738</v>
+        <v>0.8301505931129327</v>
       </c>
       <c r="E16">
-        <v>0.08354973845798241</v>
+        <v>0.08354973845793268</v>
       </c>
       <c r="F16">
-        <v>15.7078155989351</v>
+        <v>15.70781559893476</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.004635187223630322</v>
+        <v>0.004635187223589909</v>
       </c>
       <c r="J16">
-        <v>16.16390191318411</v>
+        <v>16.16390191318391</v>
       </c>
       <c r="K16">
-        <v>0.1467490749881399</v>
+        <v>0.1467490749881577</v>
       </c>
       <c r="L16">
-        <v>9.6107566267072</v>
+        <v>9.610756626707087</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,13 +988,13 @@
         <v>0.1932836135110421</v>
       </c>
       <c r="D17">
-        <v>0.7395452792366655</v>
+        <v>0.739545279236296</v>
       </c>
       <c r="E17">
-        <v>0.07782407454021367</v>
+        <v>0.07782407454022078</v>
       </c>
       <c r="F17">
-        <v>14.18751608360469</v>
+        <v>14.18751608360458</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.004193110727870764</v>
+        <v>0.004193110727866767</v>
       </c>
       <c r="J17">
-        <v>14.93947774073595</v>
+        <v>14.93947774073587</v>
       </c>
       <c r="K17">
-        <v>0.1355598658494053</v>
+        <v>0.1355598658493733</v>
       </c>
       <c r="L17">
-        <v>8.882025242732027</v>
+        <v>8.882025242731999</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1840541959031725</v>
+        <v>0.1840541959027604</v>
       </c>
       <c r="D18">
-        <v>0.6947681749784635</v>
+        <v>0.6947681749785204</v>
       </c>
       <c r="E18">
-        <v>0.0748809797075296</v>
+        <v>0.07488097970750474</v>
       </c>
       <c r="F18">
-        <v>13.4262477659683</v>
+        <v>13.42624776596801</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.004061610734453325</v>
+        <v>0.004061610734407139</v>
       </c>
       <c r="J18">
-        <v>14.30462531408665</v>
+        <v>14.30462531408654</v>
       </c>
       <c r="K18">
-        <v>0.1298056226472504</v>
+        <v>0.1298056226472823</v>
       </c>
       <c r="L18">
-        <v>8.5042211884099</v>
+        <v>8.504221188409844</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1810849315912719</v>
+        <v>0.1810849315917409</v>
       </c>
       <c r="D19">
-        <v>0.6805618285441426</v>
+        <v>0.6805618285443984</v>
       </c>
       <c r="E19">
-        <v>0.0739294972953175</v>
+        <v>0.073929497295385</v>
       </c>
       <c r="F19">
-        <v>13.18328913787707</v>
+        <v>13.18328913787678</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.004033277695566717</v>
+        <v>0.004033277695526749</v>
       </c>
       <c r="J19">
-        <v>14.0987738782749</v>
+        <v>14.09877387827478</v>
       </c>
       <c r="K19">
-        <v>0.1279457227527843</v>
+        <v>0.1279457227528482</v>
       </c>
       <c r="L19">
-        <v>8.381728586663428</v>
+        <v>8.381728586663371</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1950754108071067</v>
+        <v>0.1950754108071209</v>
       </c>
       <c r="D20">
-        <v>0.7483472568668219</v>
+        <v>0.7483472568666514</v>
       </c>
       <c r="E20">
-        <v>0.07839317793370171</v>
+        <v>0.07839317793368394</v>
       </c>
       <c r="F20">
-        <v>14.33637083686324</v>
+        <v>14.33637083686307</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.004226123763783729</v>
+        <v>0.004226123763822809</v>
       </c>
       <c r="J20">
-        <v>15.06186492396932</v>
+        <v>15.06186492396941</v>
       </c>
       <c r="K20">
-        <v>0.1366725828230813</v>
+        <v>0.1366725828231061</v>
       </c>
       <c r="L20">
-        <v>8.954862939220163</v>
+        <v>8.954862939220135</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2657060990942597</v>
+        <v>0.2657060990944444</v>
       </c>
       <c r="D21">
-        <v>1.124678093698805</v>
+        <v>1.124678093698492</v>
       </c>
       <c r="E21">
-        <v>0.1006661957239494</v>
+        <v>0.1006661957239707</v>
       </c>
       <c r="F21">
-        <v>20.48028582137715</v>
+        <v>20.48028582137772</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.007308740293487048</v>
+        <v>0.007308740293431981</v>
       </c>
       <c r="J21">
-        <v>19.68100483046948</v>
+        <v>19.68100483046982</v>
       </c>
       <c r="K21">
-        <v>0.1798802719819221</v>
+        <v>0.179880271981915</v>
       </c>
       <c r="L21">
-        <v>11.70282593416815</v>
+        <v>11.70282593416832</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2657060990942597</v>
+        <v>0.2657060990944444</v>
       </c>
       <c r="D22">
-        <v>1.124678093698805</v>
+        <v>1.124678093698492</v>
       </c>
       <c r="E22">
-        <v>0.1006661957239494</v>
+        <v>0.1006661957239707</v>
       </c>
       <c r="F22">
-        <v>20.48028582137715</v>
+        <v>20.48028582137772</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.007308740293487048</v>
+        <v>0.007308740293431981</v>
       </c>
       <c r="J22">
-        <v>19.68100483046948</v>
+        <v>19.68100483046982</v>
       </c>
       <c r="K22">
-        <v>0.1798802719819221</v>
+        <v>0.179880271981915</v>
       </c>
       <c r="L22">
-        <v>11.70282593416815</v>
+        <v>11.70282593416832</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2657060990942597</v>
+        <v>0.2657060990944444</v>
       </c>
       <c r="D23">
-        <v>1.124678093698805</v>
+        <v>1.124678093698492</v>
       </c>
       <c r="E23">
-        <v>0.1006661957239494</v>
+        <v>0.1006661957239707</v>
       </c>
       <c r="F23">
-        <v>20.48028582137715</v>
+        <v>20.48028582137772</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.007308740293487048</v>
+        <v>0.007308740293431981</v>
       </c>
       <c r="J23">
-        <v>19.68100483046948</v>
+        <v>19.68100483046982</v>
       </c>
       <c r="K23">
-        <v>0.1798802719819221</v>
+        <v>0.179880271981915</v>
       </c>
       <c r="L23">
-        <v>11.70282593416815</v>
+        <v>11.70282593416832</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2657060990942597</v>
+        <v>0.2657060990944444</v>
       </c>
       <c r="D24">
-        <v>1.124678093698805</v>
+        <v>1.124678093698492</v>
       </c>
       <c r="E24">
-        <v>0.1006661957239494</v>
+        <v>0.1006661957239707</v>
       </c>
       <c r="F24">
-        <v>20.48028582137715</v>
+        <v>20.48028582137772</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.007308740293487048</v>
+        <v>0.007308740293431981</v>
       </c>
       <c r="J24">
-        <v>19.68100483046948</v>
+        <v>19.68100483046982</v>
       </c>
       <c r="K24">
-        <v>0.1798802719819221</v>
+        <v>0.179880271981915</v>
       </c>
       <c r="L24">
-        <v>11.70282593416815</v>
+        <v>11.70282593416832</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2657060990942597</v>
+        <v>0.2657060990944444</v>
       </c>
       <c r="D25">
-        <v>1.124678093698805</v>
+        <v>1.124678093698492</v>
       </c>
       <c r="E25">
-        <v>0.1006661957239494</v>
+        <v>0.1006661957239707</v>
       </c>
       <c r="F25">
-        <v>20.48028582137715</v>
+        <v>20.48028582137772</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.007308740293487048</v>
+        <v>0.007308740293431981</v>
       </c>
       <c r="J25">
-        <v>19.68100483046948</v>
+        <v>19.68100483046982</v>
       </c>
       <c r="K25">
-        <v>0.1798802719819221</v>
+        <v>0.179880271981915</v>
       </c>
       <c r="L25">
-        <v>11.70282593416815</v>
+        <v>11.70282593416832</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1078746366599148</v>
+        <v>0.1067757209358575</v>
       </c>
       <c r="D2">
-        <v>0.3611784975970522</v>
+        <v>0.3549515527464138</v>
       </c>
       <c r="E2">
-        <v>0.04929625820001249</v>
+        <v>0.0473541985032746</v>
       </c>
       <c r="F2">
-        <v>7.508970979513066</v>
+        <v>7.434703675706771</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006791718462872682</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.005808740843722848</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.744578112410466</v>
+        <v>0.005724468340582156</v>
       </c>
       <c r="K2">
-        <v>0.08017571308533533</v>
+        <v>8.654307508173275</v>
       </c>
       <c r="L2">
-        <v>5.199850491097919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.07827939269023076</v>
+      </c>
+      <c r="M2">
+        <v>5.150504588534503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09028055581249816</v>
+        <v>0.08939158479097387</v>
       </c>
       <c r="D3">
-        <v>0.2937233669289441</v>
+        <v>0.2901021018112147</v>
       </c>
       <c r="E3">
-        <v>0.04287249724398556</v>
+        <v>0.04104291879801814</v>
       </c>
       <c r="F3">
-        <v>6.245533170556627</v>
+        <v>6.205043833982586</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007085683982954375</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007101541055549054</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.363690933461442</v>
+        <v>0.007001140812427753</v>
       </c>
       <c r="K3">
-        <v>0.06792234140259978</v>
+        <v>7.293983812583463</v>
       </c>
       <c r="L3">
-        <v>4.381292809400534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.06624960384236545</v>
+      </c>
+      <c r="M3">
+        <v>4.343799045368357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08039972717654109</v>
+        <v>0.07961463194398277</v>
       </c>
       <c r="D4">
-        <v>0.2576121526461179</v>
+        <v>0.2554236800803693</v>
       </c>
       <c r="E4">
-        <v>0.03913794279076832</v>
+        <v>0.03736827898680062</v>
       </c>
       <c r="F4">
-        <v>5.556306345486149</v>
+        <v>5.534086115013451</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007261630497742982</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008022621361116977</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.568011741767577</v>
+        <v>0.007909709024792821</v>
       </c>
       <c r="K4">
-        <v>0.06085063106985444</v>
+        <v>6.509496324822322</v>
       </c>
       <c r="L4">
-        <v>3.910196986143006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.05929959627880166</v>
+      </c>
+      <c r="M4">
+        <v>3.879133095194035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07655007114563261</v>
+        <v>0.07580292914218489</v>
       </c>
       <c r="D5">
-        <v>0.2439109120877134</v>
+        <v>0.2422785045662721</v>
       </c>
       <c r="E5">
-        <v>0.03765429633324402</v>
+        <v>0.03590748876161776</v>
       </c>
       <c r="F5">
-        <v>5.292102511369251</v>
+        <v>5.276911226297528</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007332723718404952</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.008424635916030487</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.253644468476722</v>
+        <v>0.008306143547931466</v>
       </c>
       <c r="K5">
-        <v>0.0580525936796974</v>
+        <v>6.199449600725586</v>
       </c>
       <c r="L5">
-        <v>3.724200264073815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.05654854399696418</v>
+      </c>
+      <c r="M5">
+        <v>3.695614320113535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07592021979260721</v>
+        <v>0.07517915691170174</v>
       </c>
       <c r="D6">
-        <v>0.2416895868043554</v>
+        <v>0.2401481440791144</v>
       </c>
       <c r="E6">
-        <v>0.03740990778181619</v>
+        <v>0.03566681742448274</v>
       </c>
       <c r="F6">
-        <v>5.249117808342589</v>
+        <v>5.23507303017584</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007344504821199226</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.008492874895280611</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.201963801187389</v>
+        <v>0.00837343061486151</v>
       </c>
       <c r="K6">
-        <v>0.05759233737420288</v>
+        <v>6.148474470916398</v>
       </c>
       <c r="L6">
-        <v>3.69363070987832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.05609596035342435</v>
+      </c>
+      <c r="M6">
+        <v>3.66544917148984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08034715387032065</v>
+        <v>0.07956258625868884</v>
       </c>
       <c r="D7">
-        <v>0.257423616044818</v>
+        <v>0.255242740758888</v>
       </c>
       <c r="E7">
-        <v>0.03911779487694567</v>
+        <v>0.03734844487400402</v>
       </c>
       <c r="F7">
-        <v>5.552681339203559</v>
+        <v>5.530557376681259</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007262591146604323</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.008027940962787916</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.563735657509682</v>
+        <v>0.007914955145183367</v>
       </c>
       <c r="K7">
-        <v>0.06081258943640222</v>
+        <v>6.505279358021482</v>
       </c>
       <c r="L7">
-        <v>3.907666506317327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.05926219752979378</v>
+      </c>
+      <c r="M7">
+        <v>3.876636537455923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1015775784897954</v>
+        <v>0.100557713264962</v>
       </c>
       <c r="D8">
-        <v>0.3365887598476007</v>
+        <v>0.3313057185648489</v>
       </c>
       <c r="E8">
-        <v>0.04702736003222086</v>
+        <v>0.0451265461269923</v>
       </c>
       <c r="F8">
-        <v>7.05173032531917</v>
+        <v>6.989778603533466</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000689440502422473</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.006224251342816567</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.255300538617746</v>
+        <v>0.006135094929442531</v>
       </c>
       <c r="K8">
-        <v>0.07583549559588576</v>
+        <v>8.172509667662837</v>
       </c>
       <c r="L8">
-        <v>4.909688213024211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.07402049426115553</v>
+      </c>
+      <c r="M8">
+        <v>4.864658721232416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1546108400240769</v>
+        <v>0.1527498605359199</v>
       </c>
       <c r="D9">
-        <v>0.5581694250908242</v>
+        <v>0.5441681481532896</v>
       </c>
       <c r="E9">
-        <v>0.06531806329706313</v>
+        <v>0.06301823389945582</v>
       </c>
       <c r="F9">
-        <v>11.05973311946883</v>
+        <v>10.88104471991628</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006096666305694513</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004098169731574508</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.22710103851276</v>
+        <v>0.004017921437879934</v>
       </c>
       <c r="K9">
-        <v>0.1111419608103219</v>
+        <v>12.07399612204935</v>
       </c>
       <c r="L9">
-        <v>7.268363690054457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1085630835062297</v>
+      </c>
+      <c r="M9">
+        <v>7.182562366270787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2136717777169252</v>
+        <v>0.2100380953743297</v>
       </c>
       <c r="D10">
-        <v>0.8418117009474031</v>
+        <v>0.8133418501203096</v>
       </c>
       <c r="E10">
-        <v>0.08426690961405825</v>
+        <v>0.0812470039959905</v>
       </c>
       <c r="F10">
-        <v>15.90159896463308</v>
+        <v>15.5189944997876</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005339622351172752</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.004707509824292799</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>16.31603621016652</v>
+        <v>0.004519621574002208</v>
       </c>
       <c r="K10">
-        <v>0.1481490137550487</v>
+        <v>16.04146343600627</v>
       </c>
       <c r="L10">
-        <v>9.70130086906093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1442542550023056</v>
+      </c>
+      <c r="M10">
+        <v>9.544418697166492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2586354025639963</v>
+        <v>0.2519277426940079</v>
       </c>
       <c r="D11">
-        <v>1.084302513542553</v>
+        <v>1.033792419834356</v>
       </c>
       <c r="E11">
-        <v>0.09841714555723868</v>
+        <v>0.09424816648013845</v>
       </c>
       <c r="F11">
-        <v>19.84050495447593</v>
+        <v>19.13733085983398</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004837353893188008</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.00685229139698329</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>19.23544671921383</v>
+        <v>0.006384838735550069</v>
       </c>
       <c r="K11">
-        <v>0.1755754211619802</v>
+        <v>18.77012414424851</v>
       </c>
       <c r="L11">
-        <v>11.4380304019891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.1696189777240882</v>
+      </c>
+      <c r="M11">
+        <v>11.1689170693399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2886277469637406</v>
+        <v>0.2769952733713268</v>
       </c>
       <c r="D12">
-        <v>1.26010256594509</v>
+        <v>1.176000029866742</v>
       </c>
       <c r="E12">
-        <v>0.1080750877619323</v>
+        <v>0.1021226534569131</v>
       </c>
       <c r="F12">
-        <v>22.59430886315977</v>
+        <v>21.39639396578167</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000455237080924867</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.009001574951748914</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>21.10208858563121</v>
+        <v>0.00803949558394379</v>
       </c>
       <c r="K12">
-        <v>0.193898186992957</v>
+        <v>20.34175250423488</v>
       </c>
       <c r="L12">
-        <v>12.5465056837354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.1847542195002561</v>
+      </c>
+      <c r="M12">
+        <v>12.10345345965931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2804399117296157</v>
+        <v>0.2706090367919813</v>
       </c>
       <c r="D13">
-        <v>1.210909315634268</v>
+        <v>1.138996567933873</v>
       </c>
       <c r="E13">
-        <v>0.1054034802775412</v>
+        <v>0.1001002339979138</v>
       </c>
       <c r="F13">
-        <v>21.83200369784714</v>
+        <v>20.8139770972524</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004624003229780774</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.008359805306225709</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>20.59845300597183</v>
+        <v>0.007581151134358421</v>
       </c>
       <c r="K13">
-        <v>0.1888753379984607</v>
+        <v>19.94545038015573</v>
       </c>
       <c r="L13">
-        <v>12.24768039979813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.1808912089466439</v>
+      </c>
+      <c r="M13">
+        <v>11.86793206325586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2605703610711174</v>
+        <v>0.2536527699721489</v>
       </c>
       <c r="D14">
-        <v>1.095288288462882</v>
+        <v>1.043321888756054</v>
       </c>
       <c r="E14">
-        <v>0.09903135355756376</v>
+        <v>0.09478554246934934</v>
       </c>
       <c r="F14">
-        <v>20.01502174375838</v>
+        <v>19.29048924146525</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004817403125554582</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.006974082102580326</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>19.35772540523016</v>
+        <v>0.006486170253583445</v>
       </c>
       <c r="K14">
-        <v>0.1767530373018893</v>
+        <v>18.8796809276021</v>
       </c>
       <c r="L14">
-        <v>11.51071114051615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.1706591495709446</v>
+      </c>
+      <c r="M14">
+        <v>11.23410217022123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2510253684895503</v>
+        <v>0.2450558010335158</v>
       </c>
       <c r="D15">
-        <v>1.041552178579593</v>
+        <v>0.9961945309633506</v>
       </c>
       <c r="E15">
-        <v>0.09600922458745487</v>
+        <v>0.09211146305811369</v>
       </c>
       <c r="F15">
-        <v>19.15823234991001</v>
+        <v>18.53050585936319</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.000491736409915035</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.00639629701868305</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>18.7519522743242</v>
+        <v>0.005999910934305852</v>
       </c>
       <c r="K15">
-        <v>0.1709455825189963</v>
+        <v>18.33155581953369</v>
       </c>
       <c r="L15">
-        <v>11.15057976134722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.1654745312739756</v>
+      </c>
+      <c r="M15">
+        <v>10.90792956948687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2113931164433609</v>
+        <v>0.2078579686696571</v>
       </c>
       <c r="D16">
-        <v>0.8301505931129327</v>
+        <v>0.8024268182953165</v>
       </c>
       <c r="E16">
-        <v>0.08354973845793268</v>
+        <v>0.08056798417002398</v>
       </c>
       <c r="F16">
-        <v>15.70781559893476</v>
+        <v>15.33591736613425</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005366796021314104</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.004635187223589909</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>16.16390191318391</v>
+        <v>0.004455102530036115</v>
       </c>
       <c r="K16">
-        <v>0.1467490749881577</v>
+        <v>15.8956958250761</v>
       </c>
       <c r="L16">
-        <v>9.610756626707087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.142923194125764</v>
+      </c>
+      <c r="M16">
+        <v>9.457611791320119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1932836135110421</v>
+        <v>0.1904227746141487</v>
       </c>
       <c r="D17">
-        <v>0.739545279236296</v>
+        <v>0.7170617134330541</v>
       </c>
       <c r="E17">
-        <v>0.07782407454022078</v>
+        <v>0.07510780362149561</v>
       </c>
       <c r="F17">
-        <v>14.18751608360458</v>
+        <v>13.89034085694232</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005588331172649864</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.004193110727866767</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>14.93947774073587</v>
+        <v>0.004062304937431094</v>
       </c>
       <c r="K17">
-        <v>0.1355598658493733</v>
+        <v>14.71571999737267</v>
       </c>
       <c r="L17">
-        <v>8.882025242731999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.132215088209886</v>
+      </c>
+      <c r="M17">
+        <v>8.754943728592622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1840541959027604</v>
+        <v>0.1814768756530896</v>
       </c>
       <c r="D18">
-        <v>0.6947681749785204</v>
+        <v>0.6745794135772769</v>
       </c>
       <c r="E18">
-        <v>0.07488097970750474</v>
+        <v>0.07227929503661912</v>
       </c>
       <c r="F18">
-        <v>13.42624776596801</v>
+        <v>13.16147952871177</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005705118624399217</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.004061610734407139</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>14.30462531408654</v>
+        <v>0.003948671393921188</v>
       </c>
       <c r="K18">
-        <v>0.1298056226472823</v>
+        <v>14.10016009655951</v>
       </c>
       <c r="L18">
-        <v>8.504221188409844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1266698222848746</v>
+      </c>
+      <c r="M18">
+        <v>8.388433229633961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1810849315917409</v>
+        <v>0.1785918450719635</v>
       </c>
       <c r="D19">
-        <v>0.6805618285443984</v>
+        <v>0.6610685198486976</v>
       </c>
       <c r="E19">
-        <v>0.073929497295385</v>
+        <v>0.07136229373203662</v>
       </c>
       <c r="F19">
-        <v>13.18328913787678</v>
+        <v>12.92829654046909</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005743267298492505</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.004033277695526749</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>14.09877387827478</v>
+        <v>0.003925214138011945</v>
       </c>
       <c r="K19">
-        <v>0.1279457227528482</v>
+        <v>13.90013152305474</v>
       </c>
       <c r="L19">
-        <v>8.381728586663371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1248730177589685</v>
+      </c>
+      <c r="M19">
+        <v>8.269346479849503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1950754108071209</v>
+        <v>0.1921553559876656</v>
       </c>
       <c r="D20">
-        <v>0.7483472568666514</v>
+        <v>0.7253923421999957</v>
       </c>
       <c r="E20">
-        <v>0.07839317793368394</v>
+        <v>0.07565323011293046</v>
       </c>
       <c r="F20">
-        <v>14.33637083686307</v>
+        <v>14.03251287439053</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005565966529748498</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.004226123763822809</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>15.06186492396941</v>
+        <v>0.004091336564862491</v>
       </c>
       <c r="K20">
-        <v>0.1366725828231061</v>
+        <v>14.83413043260498</v>
       </c>
       <c r="L20">
-        <v>8.954862939220135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.1332847419596774</v>
+      </c>
+      <c r="M20">
+        <v>8.825451890541757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2657060990944444</v>
+        <v>0.2581793808071922</v>
       </c>
       <c r="D21">
-        <v>1.124678093698492</v>
+        <v>1.06850472419589</v>
       </c>
       <c r="E21">
-        <v>0.1006661957239707</v>
+        <v>0.09619807622351573</v>
       </c>
       <c r="F21">
-        <v>20.48028582137772</v>
+        <v>19.69398514652892</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004765298970372577</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.007308740293431981</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>19.68100483046982</v>
+        <v>0.006760974910276829</v>
       </c>
       <c r="K21">
-        <v>0.179880271981915</v>
+        <v>19.16615996072829</v>
       </c>
       <c r="L21">
-        <v>11.70282593416832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.1733888079082533</v>
+      </c>
+      <c r="M21">
+        <v>11.40453051777939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2657060990944444</v>
+        <v>0.2581793808071922</v>
       </c>
       <c r="D22">
-        <v>1.124678093698492</v>
+        <v>1.06850472419589</v>
       </c>
       <c r="E22">
-        <v>0.1006661957239707</v>
+        <v>0.09619807622351573</v>
       </c>
       <c r="F22">
-        <v>20.48028582137772</v>
+        <v>19.69398514652892</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004765298970372577</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.007308740293431981</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>19.68100483046982</v>
+        <v>0.006760974910276829</v>
       </c>
       <c r="K22">
-        <v>0.179880271981915</v>
+        <v>19.16615996072829</v>
       </c>
       <c r="L22">
-        <v>11.70282593416832</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.1733888079082533</v>
+      </c>
+      <c r="M22">
+        <v>11.40453051777939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2657060990944444</v>
+        <v>0.2581793808071922</v>
       </c>
       <c r="D23">
-        <v>1.124678093698492</v>
+        <v>1.06850472419589</v>
       </c>
       <c r="E23">
-        <v>0.1006661957239707</v>
+        <v>0.09619807622351573</v>
       </c>
       <c r="F23">
-        <v>20.48028582137772</v>
+        <v>19.69398514652892</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004765298970372577</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.007308740293431981</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>19.68100483046982</v>
+        <v>0.006760974910276829</v>
       </c>
       <c r="K23">
-        <v>0.179880271981915</v>
+        <v>19.16615996072829</v>
       </c>
       <c r="L23">
-        <v>11.70282593416832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.1733888079082533</v>
+      </c>
+      <c r="M23">
+        <v>11.40453051777939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2657060990944444</v>
+        <v>0.2581793808071922</v>
       </c>
       <c r="D24">
-        <v>1.124678093698492</v>
+        <v>1.06850472419589</v>
       </c>
       <c r="E24">
-        <v>0.1006661957239707</v>
+        <v>0.09619807622351573</v>
       </c>
       <c r="F24">
-        <v>20.48028582137772</v>
+        <v>19.69398514652892</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004765298970372577</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.007308740293431981</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>19.68100483046982</v>
+        <v>0.006760974910276829</v>
       </c>
       <c r="K24">
-        <v>0.179880271981915</v>
+        <v>19.16615996072829</v>
       </c>
       <c r="L24">
-        <v>11.70282593416832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1733888079082533</v>
+      </c>
+      <c r="M24">
+        <v>11.40453051777939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2657060990944444</v>
+        <v>0.2581793808071922</v>
       </c>
       <c r="D25">
-        <v>1.124678093698492</v>
+        <v>1.06850472419589</v>
       </c>
       <c r="E25">
-        <v>0.1006661957239707</v>
+        <v>0.09619807622351573</v>
       </c>
       <c r="F25">
-        <v>20.48028582137772</v>
+        <v>19.69398514652892</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004765298970372577</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.007308740293431981</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>19.68100483046982</v>
+        <v>0.006760974910276829</v>
       </c>
       <c r="K25">
-        <v>0.179880271981915</v>
+        <v>19.16615996072829</v>
       </c>
       <c r="L25">
-        <v>11.70282593416832</v>
+        <v>0.1733888079082533</v>
+      </c>
+      <c r="M25">
+        <v>11.40453051777939</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1067757209358575</v>
+        <v>0.06891147896696026</v>
       </c>
       <c r="D2">
-        <v>0.3549515527464138</v>
+        <v>0.359660363199481</v>
       </c>
       <c r="E2">
-        <v>0.0473541985032746</v>
+        <v>0.02917982835655053</v>
       </c>
       <c r="F2">
-        <v>7.434703675706771</v>
+        <v>7.312713387949657</v>
       </c>
       <c r="G2">
-        <v>0.0006791718462872682</v>
+        <v>0.0006942183762544266</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,19 +445,25 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005724468340582156</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.654307508173275</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07827939269023076</v>
+        <v>0.1311336976618875</v>
       </c>
       <c r="M2">
-        <v>5.150504588534503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>7.344993622623207</v>
+      </c>
+      <c r="N2">
+        <v>2.413120403032224</v>
+      </c>
+      <c r="O2">
+        <v>6.414139679363927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08939158479097387</v>
+        <v>0.06772413885224182</v>
       </c>
       <c r="D3">
-        <v>0.2901021018112147</v>
+        <v>0.3070553678554262</v>
       </c>
       <c r="E3">
-        <v>0.04104291879801814</v>
+        <v>0.02884553981414761</v>
       </c>
       <c r="F3">
-        <v>6.205043833982586</v>
+        <v>6.210083805346585</v>
       </c>
       <c r="G3">
-        <v>0.0007085683982954375</v>
+        <v>0.0007186251640120178</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,19 +492,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007001140812427753</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.293983812583463</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06624960384236545</v>
+        <v>0.1153731765470312</v>
       </c>
       <c r="M3">
-        <v>4.343799045368357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>6.278399262378485</v>
+      </c>
+      <c r="N3">
+        <v>2.193418921081985</v>
+      </c>
+      <c r="O3">
+        <v>5.448768398170245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07961463194398277</v>
+        <v>0.06752821901398676</v>
       </c>
       <c r="D4">
-        <v>0.2554236800803693</v>
+        <v>0.2778809589982956</v>
       </c>
       <c r="E4">
-        <v>0.03736827898680062</v>
+        <v>0.02864680286580601</v>
       </c>
       <c r="F4">
-        <v>5.534086115013451</v>
+        <v>5.585190485473532</v>
       </c>
       <c r="G4">
-        <v>0.0007261630497742982</v>
+        <v>0.0007334544669244909</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,19 +539,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.007909709024792821</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.509496324822322</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05929959627880166</v>
+        <v>0.1058992150117959</v>
       </c>
       <c r="M4">
-        <v>3.879133095194035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.65084386310042</v>
+      </c>
+      <c r="N4">
+        <v>2.060340180089469</v>
+      </c>
+      <c r="O4">
+        <v>4.902479521035332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07580292914218489</v>
+        <v>0.06756159521354022</v>
       </c>
       <c r="D5">
-        <v>0.2422785045662721</v>
+        <v>0.2666183849809585</v>
       </c>
       <c r="E5">
-        <v>0.03590748876161776</v>
+        <v>0.0285680359087408</v>
       </c>
       <c r="F5">
-        <v>5.276911226297528</v>
+        <v>5.340970578597052</v>
       </c>
       <c r="G5">
-        <v>0.0007332723718404952</v>
+        <v>0.0007394881967570857</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,19 +586,25 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008306143547931466</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.199449600725586</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05654854399696418</v>
+        <v>0.1020762584502606</v>
       </c>
       <c r="M5">
-        <v>3.695614320113535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5.400471351533156</v>
+      </c>
+      <c r="N5">
+        <v>2.006516432184242</v>
+      </c>
+      <c r="O5">
+        <v>4.689158004596607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07517915691170174</v>
+        <v>0.0675734574030713</v>
       </c>
       <c r="D6">
-        <v>0.2401481440791144</v>
+        <v>0.2647821352132524</v>
       </c>
       <c r="E6">
-        <v>0.03566681742448274</v>
+        <v>0.02855510539414396</v>
       </c>
       <c r="F6">
-        <v>5.23507303017584</v>
+        <v>5.300981742621076</v>
       </c>
       <c r="G6">
-        <v>0.0007344504821199226</v>
+        <v>0.0007404902724508434</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,19 +633,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.00837343061486151</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.148474470916398</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05609596035342435</v>
+        <v>0.1014434141357299</v>
       </c>
       <c r="M6">
-        <v>3.66544917148984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5.35918365744962</v>
+      </c>
+      <c r="N6">
+        <v>1.997602280785628</v>
+      </c>
+      <c r="O6">
+        <v>4.654238616599002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07956258625868884</v>
+        <v>0.06752823470165481</v>
       </c>
       <c r="D7">
-        <v>0.255242740758888</v>
+        <v>0.2777267145805382</v>
       </c>
       <c r="E7">
-        <v>0.03734844487400402</v>
+        <v>0.02864573092357148</v>
       </c>
       <c r="F7">
-        <v>5.530557376681259</v>
+        <v>5.581857689789501</v>
       </c>
       <c r="G7">
-        <v>0.0007262591146604323</v>
+        <v>0.0007335358433195576</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,19 +680,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.007914955145183367</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.505279358021482</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05926219752979378</v>
+        <v>0.1058475195118334</v>
       </c>
       <c r="M7">
-        <v>3.876636537455923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5.647447274099648</v>
+      </c>
+      <c r="N7">
+        <v>2.059612707919882</v>
+      </c>
+      <c r="O7">
+        <v>4.899567685488989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.100557713264962</v>
+        <v>0.06837713588549832</v>
       </c>
       <c r="D8">
-        <v>0.3313057185648489</v>
+        <v>0.3407631991174611</v>
       </c>
       <c r="E8">
-        <v>0.0451265461269923</v>
+        <v>0.02906360762809967</v>
       </c>
       <c r="F8">
-        <v>6.989778603533466</v>
+        <v>6.919862779306868</v>
       </c>
       <c r="G8">
-        <v>0.000689440502422473</v>
+        <v>0.0007026870179358713</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,19 +727,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.006135094929442531</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>8.172509667662837</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07402049426115553</v>
+        <v>0.1256480953945811</v>
       </c>
       <c r="M8">
-        <v>4.864658721232416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6.970514425375796</v>
+      </c>
+      <c r="N8">
+        <v>2.336956929047176</v>
+      </c>
+      <c r="O8">
+        <v>6.069994519754999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1527498605359199</v>
+        <v>0.07561829813526089</v>
       </c>
       <c r="D9">
-        <v>0.5441681481532896</v>
+        <v>0.4997030314023334</v>
       </c>
       <c r="E9">
-        <v>0.06301823389945582</v>
+        <v>0.02989862629379125</v>
       </c>
       <c r="F9">
-        <v>10.88104471991628</v>
+        <v>10.1323798910681</v>
       </c>
       <c r="G9">
-        <v>0.0006096666305694513</v>
+        <v>0.0006389877632696104</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,19 +774,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.004017921437879934</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>12.07399612204935</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1085630835062297</v>
+        <v>0.1669759875022052</v>
       </c>
       <c r="M9">
-        <v>7.182562366270787</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9.881157880462297</v>
+      </c>
+      <c r="N9">
+        <v>2.898053226991692</v>
+      </c>
+      <c r="O9">
+        <v>8.889838243404284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2100380953743297</v>
+        <v>0.08750083954244303</v>
       </c>
       <c r="D10">
-        <v>0.8133418501203096</v>
+        <v>0.6634502203907573</v>
       </c>
       <c r="E10">
-        <v>0.0812470039959905</v>
+        <v>0.03044276265650581</v>
       </c>
       <c r="F10">
-        <v>15.5189944997876</v>
+        <v>13.26939474109616</v>
       </c>
       <c r="G10">
-        <v>0.0005339622351172752</v>
+        <v>0.000585548867681514</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,19 +821,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.004519621574002208</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>16.04146343600627</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1442542550023056</v>
+        <v>0.2010386706805178</v>
       </c>
       <c r="M10">
-        <v>9.544418697166492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12.44961364707666</v>
+      </c>
+      <c r="N10">
+        <v>3.325830221639166</v>
+      </c>
+      <c r="O10">
+        <v>11.65422600221822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2519277426940079</v>
+        <v>0.09592403142771389</v>
       </c>
       <c r="D11">
-        <v>1.033792419834356</v>
+        <v>0.7614105818505834</v>
       </c>
       <c r="E11">
-        <v>0.09424816648013845</v>
+        <v>0.03064044563828361</v>
       </c>
       <c r="F11">
-        <v>19.13733085983398</v>
+        <v>15.07976380275727</v>
       </c>
       <c r="G11">
-        <v>0.0004837353893188008</v>
+        <v>0.0005573869070110149</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,19 +868,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.006384838735550069</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>18.77012414424851</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1696189777240882</v>
+        <v>0.2184907327034651</v>
       </c>
       <c r="M11">
-        <v>11.1689170693399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.8334770580644</v>
+      </c>
+      <c r="N11">
+        <v>3.52546231297481</v>
+      </c>
+      <c r="O11">
+        <v>13.25389886692614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2769952733713268</v>
+        <v>0.09986763103842122</v>
       </c>
       <c r="D12">
-        <v>1.176000029866742</v>
+        <v>0.8046230867364272</v>
       </c>
       <c r="E12">
-        <v>0.1021226534569131</v>
+        <v>0.03070213228221519</v>
       </c>
       <c r="F12">
-        <v>21.39639396578167</v>
+        <v>15.86423802427782</v>
       </c>
       <c r="G12">
-        <v>0.000455237080924867</v>
+        <v>0.000545675766153139</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,19 +915,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.00803949558394379</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.34175250423488</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1847542195002561</v>
+        <v>0.2256220952022971</v>
       </c>
       <c r="M12">
-        <v>12.10345345965931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.41342530761094</v>
+      </c>
+      <c r="N12">
+        <v>3.601993525695462</v>
+      </c>
+      <c r="O12">
+        <v>13.94802673515395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2706090367919813</v>
+        <v>0.09897552850540592</v>
       </c>
       <c r="D13">
-        <v>1.138996567933873</v>
+        <v>0.7949639542556781</v>
       </c>
       <c r="E13">
-        <v>0.1001002339979138</v>
+        <v>0.0306895879743081</v>
       </c>
       <c r="F13">
-        <v>20.8139770972524</v>
+        <v>15.68961027643263</v>
       </c>
       <c r="G13">
-        <v>0.0004624003229780774</v>
+        <v>0.0005482589202437917</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,19 +962,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.007581151134358421</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>19.94545038015573</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1808912089466439</v>
+        <v>0.2240558487353113</v>
       </c>
       <c r="M13">
-        <v>11.86793206325586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.28530937329711</v>
+      </c>
+      <c r="N13">
+        <v>3.585465043934249</v>
+      </c>
+      <c r="O13">
+        <v>13.79346098735073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2536527699721489</v>
+        <v>0.09623023521506013</v>
       </c>
       <c r="D14">
-        <v>1.043321888756054</v>
+        <v>0.7648159176283684</v>
       </c>
       <c r="E14">
-        <v>0.09478554246934934</v>
+        <v>0.03064583784773944</v>
       </c>
       <c r="F14">
-        <v>19.29048924146525</v>
+        <v>15.14188853076683</v>
       </c>
       <c r="G14">
-        <v>0.0004817403125554582</v>
+        <v>0.0005564492686111888</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,19 +1009,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.006486170253583445</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>18.8796809276021</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1706591495709446</v>
+        <v>0.2190645514020133</v>
       </c>
       <c r="M14">
-        <v>11.23410217022123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.87982346246747</v>
+      </c>
+      <c r="N14">
+        <v>3.531738258686602</v>
+      </c>
+      <c r="O14">
+        <v>13.30884791977795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2450558010335158</v>
+        <v>0.09466214730463918</v>
       </c>
       <c r="D15">
-        <v>0.9961945309633506</v>
+        <v>0.7472787336888587</v>
       </c>
       <c r="E15">
-        <v>0.09211146305811369</v>
+        <v>0.03061706060045033</v>
       </c>
       <c r="F15">
-        <v>18.53050585936319</v>
+        <v>14.82138593162654</v>
       </c>
       <c r="G15">
-        <v>0.000491736409915035</v>
+        <v>0.0005613060052161587</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,19 +1056,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.005999910934305852</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>18.33155581953369</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1654745312739756</v>
+        <v>0.2160870494927991</v>
       </c>
       <c r="M15">
-        <v>10.90792956948687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.63993342901466</v>
+      </c>
+      <c r="N15">
+        <v>3.498958807985105</v>
+      </c>
+      <c r="O15">
+        <v>13.02540339971182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2078579686696571</v>
+        <v>0.08703189021468205</v>
       </c>
       <c r="D16">
-        <v>0.8024268182953165</v>
+        <v>0.6576971568687497</v>
       </c>
       <c r="E16">
-        <v>0.08056798417002398</v>
+        <v>0.03042842655551503</v>
       </c>
       <c r="F16">
-        <v>15.33591736613425</v>
+        <v>13.16162876991882</v>
       </c>
       <c r="G16">
-        <v>0.0005366796021314104</v>
+        <v>0.0005872799581107847</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,19 +1103,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.004455102530036115</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>15.8956958250761</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.142923194125764</v>
+        <v>0.1999529801390736</v>
       </c>
       <c r="M16">
-        <v>9.457611791320119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12.36512188028624</v>
+      </c>
+      <c r="N16">
+        <v>3.312901023533641</v>
+      </c>
+      <c r="O16">
+        <v>11.5591000493153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1904227746141487</v>
+        <v>0.08327177193437052</v>
       </c>
       <c r="D17">
-        <v>0.7170617134330541</v>
+        <v>0.6100015695534751</v>
       </c>
       <c r="E17">
-        <v>0.07510780362149561</v>
+        <v>0.03029690039675614</v>
       </c>
       <c r="F17">
-        <v>13.89034085694232</v>
+        <v>12.2616721520738</v>
       </c>
       <c r="G17">
-        <v>0.0005588331172649864</v>
+        <v>0.0006020019278527094</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,19 +1150,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.004062304937431094</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>14.71571999737267</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.132215088209886</v>
+        <v>0.1906654846392684</v>
       </c>
       <c r="M17">
-        <v>8.754943728592622</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11.64966779999216</v>
+      </c>
+      <c r="N17">
+        <v>3.200173129006771</v>
+      </c>
+      <c r="O17">
+        <v>10.76513790235927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1814768756530896</v>
+        <v>0.08136613289612882</v>
       </c>
       <c r="D18">
-        <v>0.6745794135772769</v>
+        <v>0.5845456620871516</v>
       </c>
       <c r="E18">
-        <v>0.07227929503661912</v>
+        <v>0.03021705605224412</v>
       </c>
       <c r="F18">
-        <v>13.16147952871177</v>
+        <v>11.77642247788839</v>
       </c>
       <c r="G18">
-        <v>0.0005705118624399217</v>
+        <v>0.0006101486393247483</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,19 +1197,25 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.003948671393921188</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>14.10016009655951</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1266698222848746</v>
+        <v>0.1854873127550221</v>
       </c>
       <c r="M18">
-        <v>8.388433229633961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>11.25633257347397</v>
+      </c>
+      <c r="N18">
+        <v>3.135792647912467</v>
+      </c>
+      <c r="O18">
+        <v>10.33736800531119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1785918450719635</v>
+        <v>0.08075942378476952</v>
       </c>
       <c r="D19">
-        <v>0.6610685198486976</v>
+        <v>0.576218900953819</v>
       </c>
       <c r="E19">
-        <v>0.07136229373203662</v>
+        <v>0.0301894209411131</v>
       </c>
       <c r="F19">
-        <v>12.92829654046909</v>
+        <v>11.61692251938064</v>
       </c>
       <c r="G19">
-        <v>0.0005743267298492505</v>
+        <v>0.0006128604323478726</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,19 +1244,25 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.003925214138011945</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>13.90013152305474</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1248730177589685</v>
+        <v>0.1837580623505204</v>
       </c>
       <c r="M19">
-        <v>8.269346479849503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>11.12584290865834</v>
+      </c>
+      <c r="N19">
+        <v>3.114068093211898</v>
+      </c>
+      <c r="O19">
+        <v>10.19681247479446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1921553559876656</v>
+        <v>0.08364399505079945</v>
       </c>
       <c r="D20">
-        <v>0.7253923421999957</v>
+        <v>0.6148620649722716</v>
       </c>
       <c r="E20">
-        <v>0.07565323011293046</v>
+        <v>0.03031136566483461</v>
       </c>
       <c r="F20">
-        <v>14.03251287439053</v>
+        <v>12.35392738411252</v>
       </c>
       <c r="G20">
-        <v>0.0005565966529748498</v>
+        <v>0.0006004701628406955</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,19 +1291,25 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.004091336564862491</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>14.83413043260498</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1332847419596774</v>
+        <v>0.1916361480289908</v>
       </c>
       <c r="M20">
-        <v>8.825451890541757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11.72383696907698</v>
+      </c>
+      <c r="N20">
+        <v>3.212124605640838</v>
+      </c>
+      <c r="O20">
+        <v>10.84649135579261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2581793808071922</v>
+        <v>0.09701177986703868</v>
       </c>
       <c r="D21">
-        <v>1.06850472419589</v>
+        <v>0.7734672841732504</v>
       </c>
       <c r="E21">
-        <v>0.09619807622351573</v>
+        <v>0.03065911988021064</v>
       </c>
       <c r="F21">
-        <v>19.69398514652892</v>
+        <v>15.29948206148202</v>
       </c>
       <c r="G21">
-        <v>0.0004765298970372577</v>
+        <v>0.0005540787430405832</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,19 +1338,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.006760974910276829</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>19.16615996072829</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1733888079082533</v>
+        <v>0.2205130814428031</v>
       </c>
       <c r="M21">
-        <v>11.40453051777939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13.99706517549123</v>
+      </c>
+      <c r="N21">
+        <v>3.547491536849236</v>
+      </c>
+      <c r="O21">
+        <v>13.44825485312117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2581793808071922</v>
+        <v>0.1107073775632159</v>
       </c>
       <c r="D22">
-        <v>1.06850472419589</v>
+        <v>0.9177671736436537</v>
       </c>
       <c r="E22">
-        <v>0.09619807622351573</v>
+        <v>0.03080130042009088</v>
       </c>
       <c r="F22">
-        <v>19.69398514652892</v>
+        <v>17.87985493541993</v>
       </c>
       <c r="G22">
-        <v>0.0004765298970372577</v>
+        <v>0.0005167700262495397</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,19 +1385,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.006760974910276829</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>19.16615996072829</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1733888079082533</v>
+        <v>0.2428774882011169</v>
       </c>
       <c r="M22">
-        <v>11.40453051777939</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.85342061373251</v>
+      </c>
+      <c r="N22">
+        <v>3.772319237242868</v>
+      </c>
+      <c r="O22">
+        <v>15.73413240074925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2581793808071922</v>
+        <v>0.1027004325291614</v>
       </c>
       <c r="D23">
-        <v>1.06850472419589</v>
+        <v>0.8348967269400589</v>
       </c>
       <c r="E23">
-        <v>0.09619807622351573</v>
+        <v>0.03073703652720461</v>
       </c>
       <c r="F23">
-        <v>19.69398514652892</v>
+        <v>16.40890713352002</v>
       </c>
       <c r="G23">
-        <v>0.0004765298970372577</v>
+        <v>0.0005377029760924989</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,19 +1432,25 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.006760974910276829</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>19.16615996072829</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1733888079082533</v>
+        <v>0.2304316465402962</v>
       </c>
       <c r="M23">
-        <v>11.40453051777939</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.80949287107077</v>
+      </c>
+      <c r="N23">
+        <v>3.651704523732263</v>
+      </c>
+      <c r="O23">
+        <v>14.43030384817996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2581793808071922</v>
+        <v>0.08347493345388557</v>
       </c>
       <c r="D24">
-        <v>1.06850472419589</v>
+        <v>0.6126586686920064</v>
       </c>
       <c r="E24">
-        <v>0.09619807622351573</v>
+        <v>0.03030483871972578</v>
       </c>
       <c r="F24">
-        <v>19.69398514652892</v>
+        <v>12.31212113418206</v>
       </c>
       <c r="G24">
-        <v>0.0004765298970372577</v>
+        <v>0.0006011636338421959</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,19 +1479,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.006760974910276829</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.16615996072829</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1733888079082533</v>
+        <v>0.191196822066793</v>
       </c>
       <c r="M24">
-        <v>11.40453051777939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>11.69025046292927</v>
+      </c>
+      <c r="N24">
+        <v>3.206720023299795</v>
+      </c>
+      <c r="O24">
+        <v>10.80962430777473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2581793808071922</v>
+        <v>0.0728260405967518</v>
       </c>
       <c r="D25">
-        <v>1.06850472419589</v>
+        <v>0.4510555049898244</v>
       </c>
       <c r="E25">
-        <v>0.09619807622351573</v>
+        <v>0.02967725205162353</v>
       </c>
       <c r="F25">
-        <v>19.69398514652892</v>
+        <v>9.169355900746808</v>
       </c>
       <c r="G25">
-        <v>0.0004765298970372577</v>
+        <v>0.0006569098556405972</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.006760974910276829</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.16615996072829</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1733888079082533</v>
+        <v>0.1553696137199978</v>
       </c>
       <c r="M25">
-        <v>11.40453051777939</v>
+        <v>9.042363362181277</v>
+      </c>
+      <c r="N25">
+        <v>2.743970282773262</v>
+      </c>
+      <c r="O25">
+        <v>8.043253687978989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06891147896696026</v>
+        <v>0.02752841319887267</v>
       </c>
       <c r="D2">
-        <v>0.359660363199481</v>
+        <v>0.07947841319092674</v>
       </c>
       <c r="E2">
-        <v>0.02917982835655053</v>
+        <v>0.0386269726752495</v>
       </c>
       <c r="F2">
-        <v>7.312713387949657</v>
+        <v>2.385974479000495</v>
       </c>
       <c r="G2">
-        <v>0.0006942183762544266</v>
+        <v>0.0008235457030050242</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.999092217566456</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.599710721970382</v>
       </c>
       <c r="L2">
-        <v>0.1311336976618875</v>
+        <v>0.07091730211926617</v>
       </c>
       <c r="M2">
-        <v>7.344993622623207</v>
+        <v>0.7371597235115814</v>
       </c>
       <c r="N2">
-        <v>2.413120403032224</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.414139679363927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06772413885224182</v>
+        <v>0.0251444524489699</v>
       </c>
       <c r="D3">
-        <v>0.3070553678554262</v>
+        <v>0.08239414882302043</v>
       </c>
       <c r="E3">
-        <v>0.02884553981414761</v>
+        <v>0.03655276075509306</v>
       </c>
       <c r="F3">
-        <v>6.210083805346585</v>
+        <v>2.19867786080728</v>
       </c>
       <c r="G3">
-        <v>0.0007186251640120178</v>
+        <v>0.0008327443310794181</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.856434859755893</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.116580688885165</v>
       </c>
       <c r="L3">
-        <v>0.1153731765470312</v>
+        <v>0.06808414866562984</v>
       </c>
       <c r="M3">
-        <v>6.278399262378485</v>
+        <v>0.6426977067392841</v>
       </c>
       <c r="N3">
-        <v>2.193418921081985</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.448768398170245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06752821901398676</v>
+        <v>0.02370543393263347</v>
       </c>
       <c r="D4">
-        <v>0.2778809589982956</v>
+        <v>0.08429590982203194</v>
       </c>
       <c r="E4">
-        <v>0.02864680286580601</v>
+        <v>0.03533776978912861</v>
       </c>
       <c r="F4">
-        <v>5.585190485473532</v>
+        <v>2.089003233996834</v>
       </c>
       <c r="G4">
-        <v>0.0007334544669244909</v>
+        <v>0.0008385342542718159</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.773235962481124</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.824662344910905</v>
       </c>
       <c r="L4">
-        <v>0.1058992150117959</v>
+        <v>0.06646825150789581</v>
       </c>
       <c r="M4">
-        <v>5.65084386310042</v>
+        <v>0.5857523639896343</v>
       </c>
       <c r="N4">
-        <v>2.060340180089469</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4.902479521035332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06756159521354022</v>
+        <v>0.02312476883728465</v>
       </c>
       <c r="D5">
-        <v>0.2666183849809585</v>
+        <v>0.08509742307748525</v>
       </c>
       <c r="E5">
-        <v>0.0285680359087408</v>
+        <v>0.03485631404123701</v>
       </c>
       <c r="F5">
-        <v>5.340970578597052</v>
+        <v>2.045523004393246</v>
       </c>
       <c r="G5">
-        <v>0.0007394881967570857</v>
+        <v>0.00084093132337415</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.740335561238993</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.706726378480937</v>
       </c>
       <c r="L5">
-        <v>0.1020762584502606</v>
+        <v>0.06583857832591278</v>
       </c>
       <c r="M5">
-        <v>5.400471351533156</v>
+        <v>0.5627784611073423</v>
       </c>
       <c r="N5">
-        <v>2.006516432184242</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4.689158004596607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0675734574030713</v>
+        <v>0.02302868396775892</v>
       </c>
       <c r="D6">
-        <v>0.2647821352132524</v>
+        <v>0.0852320749854627</v>
       </c>
       <c r="E6">
-        <v>0.02855510539414396</v>
+        <v>0.03477716437669542</v>
       </c>
       <c r="F6">
-        <v>5.300981742621076</v>
+        <v>2.038372924502482</v>
       </c>
       <c r="G6">
-        <v>0.0007404902724508434</v>
+        <v>0.0008413316811420715</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.734930316429711</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.687200450423433</v>
       </c>
       <c r="L6">
-        <v>0.1014434141357299</v>
+        <v>0.06573569908830734</v>
       </c>
       <c r="M6">
-        <v>5.35918365744962</v>
+        <v>0.5589767406613007</v>
       </c>
       <c r="N6">
-        <v>1.997602280785628</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>4.654238616599002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06752823470165481</v>
+        <v>0.0236975802042565</v>
       </c>
       <c r="D7">
-        <v>0.2777267145805382</v>
+        <v>0.08430661376731408</v>
       </c>
       <c r="E7">
-        <v>0.02864573092357148</v>
+        <v>0.03533122273347544</v>
       </c>
       <c r="F7">
-        <v>5.581857689789501</v>
+        <v>2.088412091753327</v>
       </c>
       <c r="G7">
-        <v>0.0007335358433195576</v>
+        <v>0.0008385664272043275</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.77278831878796</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.823067884015046</v>
       </c>
       <c r="L7">
-        <v>0.1058475195118334</v>
+        <v>0.06645964570512319</v>
       </c>
       <c r="M7">
-        <v>5.647447274099648</v>
+        <v>0.5854416334147032</v>
       </c>
       <c r="N7">
-        <v>2.059612707919882</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>4.899567685488989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06837713588549832</v>
+        <v>0.02670098545988253</v>
       </c>
       <c r="D8">
-        <v>0.3407631991174611</v>
+        <v>0.08045966513703817</v>
       </c>
       <c r="E8">
-        <v>0.02906360762809967</v>
+        <v>0.03789895221762052</v>
       </c>
       <c r="F8">
-        <v>6.919862779306868</v>
+        <v>2.320209592858106</v>
       </c>
       <c r="G8">
-        <v>0.0007026870179358713</v>
+        <v>0.0008266891525230403</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.948928552476701</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.432042367817417</v>
       </c>
       <c r="L8">
-        <v>0.1256480953945811</v>
+        <v>0.06991332748374646</v>
       </c>
       <c r="M8">
-        <v>6.970514425375796</v>
+        <v>0.704349196317331</v>
       </c>
       <c r="N8">
-        <v>2.336956929047176</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>6.069994519754999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07561829813526089</v>
+        <v>0.03281156078358549</v>
       </c>
       <c r="D9">
-        <v>0.4997030314023334</v>
+        <v>0.07387715765186798</v>
       </c>
       <c r="E9">
-        <v>0.02989862629379125</v>
+        <v>0.04345283043513248</v>
       </c>
       <c r="F9">
-        <v>10.1323798910681</v>
+        <v>2.823371272750165</v>
       </c>
       <c r="G9">
-        <v>0.0006389877632696104</v>
+        <v>0.0008044268252794028</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.334270327532934</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.672103425298644</v>
       </c>
       <c r="L9">
-        <v>0.1669759875022052</v>
+        <v>0.07778165714850616</v>
       </c>
       <c r="M9">
-        <v>9.881157880462297</v>
+        <v>0.947587788631175</v>
       </c>
       <c r="N9">
-        <v>2.898053226991692</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>8.889838243404284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08750083954244303</v>
+        <v>0.03747526948617974</v>
       </c>
       <c r="D10">
-        <v>0.6634502203907573</v>
+        <v>0.06975053610127446</v>
       </c>
       <c r="E10">
-        <v>0.03044276265650581</v>
+        <v>0.04793397801292443</v>
       </c>
       <c r="F10">
-        <v>13.26939474109616</v>
+        <v>3.232676389704693</v>
       </c>
       <c r="G10">
-        <v>0.000585548867681514</v>
+        <v>0.0007885455044353881</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.64971890363833</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5.624416792028626</v>
       </c>
       <c r="L10">
-        <v>0.2010386706805178</v>
+        <v>0.08441034270089176</v>
       </c>
       <c r="M10">
-        <v>12.44961364707666</v>
+        <v>1.135110990643994</v>
       </c>
       <c r="N10">
-        <v>3.325830221639166</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.65422600221822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09592403142771389</v>
+        <v>0.03964522037493623</v>
       </c>
       <c r="D11">
-        <v>0.7614105818505834</v>
+        <v>0.06806076800903682</v>
       </c>
       <c r="E11">
-        <v>0.03064044563828361</v>
+        <v>0.05008158534521101</v>
       </c>
       <c r="F11">
-        <v>15.07976380275727</v>
+        <v>3.430099915603222</v>
       </c>
       <c r="G11">
-        <v>0.0005573869070110149</v>
+        <v>0.0007813842344537554</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.802337533488654</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6.070090069987259</v>
       </c>
       <c r="L11">
-        <v>0.2184907327034651</v>
+        <v>0.08765687790589283</v>
       </c>
       <c r="M11">
-        <v>13.8334770580644</v>
+        <v>1.223037455815984</v>
       </c>
       <c r="N11">
-        <v>3.52546231297481</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>13.25389886692614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09986763103842122</v>
+        <v>0.04047490267023335</v>
       </c>
       <c r="D12">
-        <v>0.8046230867364272</v>
+        <v>0.06745124695239824</v>
       </c>
       <c r="E12">
-        <v>0.03070213228221519</v>
+        <v>0.0509126544794114</v>
       </c>
       <c r="F12">
-        <v>15.86423802427782</v>
+        <v>3.506729243687062</v>
       </c>
       <c r="G12">
-        <v>0.000545675766153139</v>
+        <v>0.0007786777101618378</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.861646090310671</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6.240987283029142</v>
       </c>
       <c r="L12">
-        <v>0.2256220952022971</v>
+        <v>0.08892405903387157</v>
       </c>
       <c r="M12">
-        <v>14.41342530761094</v>
+        <v>1.256778421561066</v>
       </c>
       <c r="N12">
-        <v>3.601993525695462</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>13.94802673515395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09897552850540592</v>
+        <v>0.04029584367261663</v>
       </c>
       <c r="D13">
-        <v>0.7949639542556781</v>
+        <v>0.06758110761574088</v>
       </c>
       <c r="E13">
-        <v>0.0306895879743081</v>
+        <v>0.05073283935211848</v>
       </c>
       <c r="F13">
-        <v>15.68961027643263</v>
+        <v>3.490138151008694</v>
       </c>
       <c r="G13">
-        <v>0.0005482589202437917</v>
+        <v>0.0007792604394613944</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.848801974843553</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6.204080830021041</v>
       </c>
       <c r="L13">
-        <v>0.2240558487353113</v>
+        <v>0.08864938865507099</v>
       </c>
       <c r="M13">
-        <v>14.28530937329711</v>
+        <v>1.249490710273776</v>
       </c>
       <c r="N13">
-        <v>3.585465043934249</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.79346098735073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09623023521506013</v>
+        <v>0.03971331282345147</v>
       </c>
       <c r="D14">
-        <v>0.7648159176283684</v>
+        <v>0.06800999237435335</v>
       </c>
       <c r="E14">
-        <v>0.03064583784773944</v>
+        <v>0.05014958757049826</v>
       </c>
       <c r="F14">
-        <v>15.14188853076683</v>
+        <v>3.436365200747701</v>
       </c>
       <c r="G14">
-        <v>0.0005564492686111888</v>
+        <v>0.0007811614846947038</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.807185243219251</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6.084105072341174</v>
       </c>
       <c r="L14">
-        <v>0.2190645514020133</v>
+        <v>0.08776034389157417</v>
       </c>
       <c r="M14">
-        <v>13.87982346246747</v>
+        <v>1.225803998169653</v>
       </c>
       <c r="N14">
-        <v>3.531738258686602</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.30884791977795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09466214730463918</v>
+        <v>0.03935756608966301</v>
       </c>
       <c r="D15">
-        <v>0.7472787336888587</v>
+        <v>0.06827676093809742</v>
       </c>
       <c r="E15">
-        <v>0.03061706060045033</v>
+        <v>0.04979471752345788</v>
       </c>
       <c r="F15">
-        <v>14.82138593162654</v>
+        <v>3.40367934807</v>
       </c>
       <c r="G15">
-        <v>0.0005613060052161587</v>
+        <v>0.0007823264971169882</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.781897673051148</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.010904795273689</v>
       </c>
       <c r="L15">
-        <v>0.2160870494927991</v>
+        <v>0.08722084580379885</v>
       </c>
       <c r="M15">
-        <v>13.63993342901466</v>
+        <v>1.211355364718926</v>
       </c>
       <c r="N15">
-        <v>3.498958807985105</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.02540339971182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08703189021468205</v>
+        <v>0.03733451506534635</v>
       </c>
       <c r="D16">
-        <v>0.6576971568687497</v>
+        <v>0.06986501647228494</v>
       </c>
       <c r="E16">
-        <v>0.03042842655551503</v>
+        <v>0.04779599757490161</v>
       </c>
       <c r="F16">
-        <v>13.16162876991882</v>
+        <v>3.220021193206094</v>
       </c>
       <c r="G16">
-        <v>0.0005872799581107847</v>
+        <v>0.0007890144698478248</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.639945188643296</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.595569578965183</v>
       </c>
       <c r="L16">
-        <v>0.1999529801390736</v>
+        <v>0.08420319949907196</v>
       </c>
       <c r="M16">
-        <v>12.36512188028624</v>
+        <v>1.129423143627548</v>
       </c>
       <c r="N16">
-        <v>3.312901023533641</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>11.5591000493153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08327177193437052</v>
+        <v>0.03610650970182405</v>
       </c>
       <c r="D17">
-        <v>0.6100015695534751</v>
+        <v>0.07088961839394869</v>
       </c>
       <c r="E17">
-        <v>0.03029690039675614</v>
+        <v>0.04659921657508193</v>
       </c>
       <c r="F17">
-        <v>12.2616721520738</v>
+        <v>3.1103988178821</v>
       </c>
       <c r="G17">
-        <v>0.0006020019278527094</v>
+        <v>0.00079313097701815</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.555333735247885</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5.344192356083738</v>
       </c>
       <c r="L17">
-        <v>0.1906654846392684</v>
+        <v>0.08241420969635271</v>
       </c>
       <c r="M17">
-        <v>11.64966779999216</v>
+        <v>1.079877261685183</v>
       </c>
       <c r="N17">
-        <v>3.200173129006771</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>10.76513790235927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08136613289612882</v>
+        <v>0.03540468141611797</v>
       </c>
       <c r="D18">
-        <v>0.5845456620871516</v>
+        <v>0.07149635218011241</v>
       </c>
       <c r="E18">
-        <v>0.03021705605224412</v>
+        <v>0.04592098645124665</v>
       </c>
       <c r="F18">
-        <v>11.77642247788839</v>
+        <v>3.048386591201989</v>
       </c>
       <c r="G18">
-        <v>0.0006101486393247483</v>
+        <v>0.0007955048899981028</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.507512047796538</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5.200756803422564</v>
       </c>
       <c r="L18">
-        <v>0.1854873127550221</v>
+        <v>0.08140667604970986</v>
       </c>
       <c r="M18">
-        <v>11.25633257347397</v>
+        <v>1.051621887873495</v>
       </c>
       <c r="N18">
-        <v>3.135792647912467</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>10.33736800531119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08075942378476952</v>
+        <v>0.03516779681357463</v>
       </c>
       <c r="D19">
-        <v>0.576218900953819</v>
+        <v>0.07170467732728625</v>
       </c>
       <c r="E19">
-        <v>0.0301894209411131</v>
+        <v>0.04569302853358614</v>
       </c>
       <c r="F19">
-        <v>11.61692251938064</v>
+        <v>3.027561700464446</v>
       </c>
       <c r="G19">
-        <v>0.0006128604323478726</v>
+        <v>0.0007963098295040519</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.491459758769224</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.152379963911187</v>
       </c>
       <c r="L19">
-        <v>0.1837580623505204</v>
+        <v>0.08106909723802858</v>
       </c>
       <c r="M19">
-        <v>11.12584290865834</v>
+        <v>1.042094763851537</v>
       </c>
       <c r="N19">
-        <v>3.114068093211898</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.19681247479446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08364399505079945</v>
+        <v>0.03623676164121292</v>
       </c>
       <c r="D20">
-        <v>0.6148620649722716</v>
+        <v>0.07077872306329525</v>
       </c>
       <c r="E20">
-        <v>0.03031136566483461</v>
+        <v>0.04672555340938089</v>
       </c>
       <c r="F20">
-        <v>12.35392738411252</v>
+        <v>3.121958975933893</v>
       </c>
       <c r="G20">
-        <v>0.0006004701628406955</v>
+        <v>0.0007926921512974862</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.564251973686197</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5.37083057470096</v>
       </c>
       <c r="L20">
-        <v>0.1916361480289908</v>
+        <v>0.08260240016573306</v>
       </c>
       <c r="M20">
-        <v>11.72383696907698</v>
+        <v>1.085125985165469</v>
       </c>
       <c r="N20">
-        <v>3.212124605640838</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.84649135579261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09701177986703868</v>
+        <v>0.03988419120788222</v>
       </c>
       <c r="D21">
-        <v>0.7734672841732504</v>
+        <v>0.0678831646249769</v>
       </c>
       <c r="E21">
-        <v>0.03065911988021064</v>
+        <v>0.05032040076514832</v>
       </c>
       <c r="F21">
-        <v>15.29948206148202</v>
+        <v>3.452106671680696</v>
       </c>
       <c r="G21">
-        <v>0.0005540787430405832</v>
+        <v>0.0007806029909196125</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.81936619098893</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6.119284094986995</v>
       </c>
       <c r="L21">
-        <v>0.2205130814428031</v>
+        <v>0.0880204127559594</v>
       </c>
       <c r="M21">
-        <v>13.99706517549123</v>
+        <v>1.232748685963628</v>
       </c>
       <c r="N21">
-        <v>3.547491536849236</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>13.44825485312117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1107073775632159</v>
+        <v>0.04231502605578186</v>
       </c>
       <c r="D22">
-        <v>0.9177671736436537</v>
+        <v>0.06616971861524945</v>
       </c>
       <c r="E22">
-        <v>0.03080130042009088</v>
+        <v>0.05277490624418846</v>
       </c>
       <c r="F22">
-        <v>17.87985493541993</v>
+        <v>3.678919580555828</v>
       </c>
       <c r="G22">
-        <v>0.0005167700262495397</v>
+        <v>0.000772730705903563</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.995047055098311</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.621054423791861</v>
       </c>
       <c r="L22">
-        <v>0.2428774882011169</v>
+        <v>0.09178426844852794</v>
       </c>
       <c r="M22">
-        <v>15.85342061373251</v>
+        <v>1.331862387453668</v>
       </c>
       <c r="N22">
-        <v>3.772319237242868</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.73413240074925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1027004325291614</v>
+        <v>0.04101296759019135</v>
       </c>
       <c r="D23">
-        <v>0.8348967269400589</v>
+        <v>0.06706655921013294</v>
       </c>
       <c r="E23">
-        <v>0.03073703652720461</v>
+        <v>0.05145449293642557</v>
       </c>
       <c r="F23">
-        <v>16.40890713352002</v>
+        <v>3.55676065153628</v>
       </c>
       <c r="G23">
-        <v>0.0005377029760924989</v>
+        <v>0.0007769310699721984</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.900388598269913</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.35197070818009</v>
       </c>
       <c r="L23">
-        <v>0.2304316465402962</v>
+        <v>0.08975335296184994</v>
       </c>
       <c r="M23">
-        <v>14.80949287107077</v>
+        <v>1.278697314855592</v>
       </c>
       <c r="N23">
-        <v>3.651704523732263</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.43030384817996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08347493345388557</v>
+        <v>0.03617786182967819</v>
       </c>
       <c r="D24">
-        <v>0.6126586686920064</v>
+        <v>0.0708288040339724</v>
       </c>
       <c r="E24">
-        <v>0.03030483871972578</v>
+        <v>0.04666840611108469</v>
       </c>
       <c r="F24">
-        <v>12.31212113418206</v>
+        <v>3.11672949777406</v>
       </c>
       <c r="G24">
-        <v>0.0006011636338421959</v>
+        <v>0.0007928905213768286</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.56021749099969</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5.358784082815021</v>
       </c>
       <c r="L24">
-        <v>0.191196822066793</v>
+        <v>0.08251725424067757</v>
       </c>
       <c r="M24">
-        <v>11.69025046292927</v>
+        <v>1.08275232835112</v>
       </c>
       <c r="N24">
-        <v>3.206720023299795</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.80962430777473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0728260405967518</v>
+        <v>0.03113106166880186</v>
       </c>
       <c r="D25">
-        <v>0.4510555049898244</v>
+        <v>0.07554331845065576</v>
       </c>
       <c r="E25">
-        <v>0.02967725205162353</v>
+        <v>0.04188671771347252</v>
       </c>
       <c r="F25">
-        <v>9.169355900746808</v>
+        <v>2.681090036419761</v>
       </c>
       <c r="G25">
-        <v>0.0006569098556405972</v>
+        <v>0.0008103538886605972</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.224983749486498</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.330452746734636</v>
       </c>
       <c r="L25">
-        <v>0.1553696137199978</v>
+        <v>0.0755184972155476</v>
       </c>
       <c r="M25">
-        <v>9.042363362181277</v>
+        <v>0.8804512756083582</v>
       </c>
       <c r="N25">
-        <v>2.743970282773262</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>8.043253687978989</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02752841319887267</v>
+        <v>0.06649561763787659</v>
       </c>
       <c r="D2">
-        <v>0.07947841319092674</v>
+        <v>0.1603103226534159</v>
       </c>
       <c r="E2">
-        <v>0.0386269726752495</v>
+        <v>0.07830362079268482</v>
       </c>
       <c r="F2">
-        <v>2.385974479000495</v>
+        <v>2.761593524215925</v>
       </c>
       <c r="G2">
-        <v>0.0008235457030050242</v>
+        <v>0.002579208089904749</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.999092217566456</v>
+        <v>2.524608240905252</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.599710721970382</v>
+        <v>2.083135759181971</v>
       </c>
       <c r="L2">
-        <v>0.07091730211926617</v>
+        <v>0.1324669927932725</v>
       </c>
       <c r="M2">
-        <v>0.7371597235115814</v>
+        <v>0.5559387455636937</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0251444524489699</v>
+        <v>0.06624426197548416</v>
       </c>
       <c r="D3">
-        <v>0.08239414882302043</v>
+        <v>0.16149832773025</v>
       </c>
       <c r="E3">
-        <v>0.03655276075509306</v>
+        <v>0.07823285078791997</v>
       </c>
       <c r="F3">
-        <v>2.19867786080728</v>
+        <v>2.731702127650692</v>
       </c>
       <c r="G3">
-        <v>0.0008327443310794181</v>
+        <v>0.002584813209828425</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.856434859755893</v>
+        <v>2.504424526509567</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.116580688885165</v>
+        <v>1.96735084434971</v>
       </c>
       <c r="L3">
-        <v>0.06808414866562984</v>
+        <v>0.1325066693301373</v>
       </c>
       <c r="M3">
-        <v>0.6426977067392841</v>
+        <v>0.5348443598449464</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02370543393263347</v>
+        <v>0.06611379606925993</v>
       </c>
       <c r="D4">
-        <v>0.08429590982203194</v>
+        <v>0.1622712438345104</v>
       </c>
       <c r="E4">
-        <v>0.03533776978912861</v>
+        <v>0.07821993004529304</v>
       </c>
       <c r="F4">
-        <v>2.089003233996834</v>
+        <v>2.714908764533206</v>
       </c>
       <c r="G4">
-        <v>0.0008385342542718159</v>
+        <v>0.002588433836526529</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.773235962481124</v>
+        <v>2.493390041777033</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.824662344910905</v>
+        <v>1.897504434658998</v>
       </c>
       <c r="L4">
-        <v>0.06646825150789581</v>
+        <v>0.1325844558708127</v>
       </c>
       <c r="M4">
-        <v>0.5857523639896343</v>
+        <v>0.5222258120514596</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02312476883728465</v>
+        <v>0.06606666338279865</v>
       </c>
       <c r="D5">
-        <v>0.08509742307748525</v>
+        <v>0.162597110240327</v>
       </c>
       <c r="E5">
-        <v>0.03485631404123701</v>
+        <v>0.07822234305127829</v>
       </c>
       <c r="F5">
-        <v>2.045523004393246</v>
+        <v>2.708455430729714</v>
       </c>
       <c r="G5">
-        <v>0.00084093132337415</v>
+        <v>0.00258995445609898</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.740335561238993</v>
+        <v>2.489233263750421</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.706726378480937</v>
+        <v>1.869353997739353</v>
       </c>
       <c r="L5">
-        <v>0.06583857832591278</v>
+        <v>0.1326295632877788</v>
       </c>
       <c r="M5">
-        <v>0.5627784611073423</v>
+        <v>0.5171673721863357</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02302868396775892</v>
+        <v>0.06605920236756901</v>
       </c>
       <c r="D6">
-        <v>0.0852320749854627</v>
+        <v>0.1626518772109478</v>
       </c>
       <c r="E6">
-        <v>0.03477716437669542</v>
+        <v>0.07822320750869238</v>
       </c>
       <c r="F6">
-        <v>2.038372924502482</v>
+        <v>2.707407356550817</v>
       </c>
       <c r="G6">
-        <v>0.0008413316811420715</v>
+        <v>0.002590209687444234</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.734930316429711</v>
+        <v>2.488563510888326</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.687200450423433</v>
+        <v>1.864698494550794</v>
       </c>
       <c r="L6">
-        <v>0.06573569908830734</v>
+        <v>0.1326378624621611</v>
       </c>
       <c r="M6">
-        <v>0.5589767406613007</v>
+        <v>0.5163324748472178</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0236975802042565</v>
+        <v>0.06611313595028889</v>
       </c>
       <c r="D7">
-        <v>0.08430661376731408</v>
+        <v>0.1622755945106498</v>
       </c>
       <c r="E7">
-        <v>0.03533122273347544</v>
+        <v>0.07821993149731377</v>
       </c>
       <c r="F7">
-        <v>2.088412091753327</v>
+        <v>2.714820156054415</v>
       </c>
       <c r="G7">
-        <v>0.0008385664272043275</v>
+        <v>0.002588454161068619</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.77278831878796</v>
+        <v>2.49333260820984</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.823067884015046</v>
+        <v>1.897123523541694</v>
       </c>
       <c r="L7">
-        <v>0.06645964570512319</v>
+        <v>0.1325850099466237</v>
       </c>
       <c r="M7">
-        <v>0.5854416334147032</v>
+        <v>0.5221572533562906</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02670098545988253</v>
+        <v>0.06640401505599414</v>
       </c>
       <c r="D8">
-        <v>0.08045966513703817</v>
+        <v>0.1607109019676543</v>
       </c>
       <c r="E8">
-        <v>0.03789895221762052</v>
+        <v>0.07827288245864672</v>
       </c>
       <c r="F8">
-        <v>2.320209592858106</v>
+        <v>2.750961837763256</v>
       </c>
       <c r="G8">
-        <v>0.0008266891525230403</v>
+        <v>0.002581103667098179</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.948928552476701</v>
+        <v>2.517365914050288</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.432042367817417</v>
+        <v>2.042953990591627</v>
       </c>
       <c r="L8">
-        <v>0.06991332748374646</v>
+        <v>0.1324695692967062</v>
       </c>
       <c r="M8">
-        <v>0.704349196317331</v>
+        <v>0.5485960909962984</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03281156078358549</v>
+        <v>0.06716253052544374</v>
       </c>
       <c r="D9">
-        <v>0.07387715765186798</v>
+        <v>0.1579890664498329</v>
       </c>
       <c r="E9">
-        <v>0.04345283043513248</v>
+        <v>0.07861904982067713</v>
       </c>
       <c r="F9">
-        <v>2.823371272750165</v>
+        <v>2.834319825688226</v>
       </c>
       <c r="G9">
-        <v>0.0008044268252794028</v>
+        <v>0.002568102885342613</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.334270327532934</v>
+        <v>2.575356072527441</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.672103425298644</v>
+        <v>2.338868504906145</v>
       </c>
       <c r="L9">
-        <v>0.07778165714850616</v>
+        <v>0.1326683669336504</v>
       </c>
       <c r="M9">
-        <v>0.947587788631175</v>
+        <v>0.6030988710625778</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03747526948617974</v>
+        <v>0.06783293315621108</v>
       </c>
       <c r="D10">
-        <v>0.06975053610127446</v>
+        <v>0.1562026704976525</v>
       </c>
       <c r="E10">
-        <v>0.04793397801292443</v>
+        <v>0.0790213568048479</v>
       </c>
       <c r="F10">
-        <v>3.232676389704693</v>
+        <v>2.903329865980538</v>
       </c>
       <c r="G10">
-        <v>0.0007885455044353881</v>
+        <v>0.002559402754675988</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.64971890363833</v>
+        <v>2.624704577132107</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.624416792028626</v>
+        <v>2.562442644498503</v>
       </c>
       <c r="L10">
-        <v>0.08441034270089176</v>
+        <v>0.1330755724138726</v>
       </c>
       <c r="M10">
-        <v>1.135110990643994</v>
+        <v>0.6447812977723402</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03964522037493623</v>
+        <v>0.06816217095049382</v>
       </c>
       <c r="D11">
-        <v>0.06806076800903682</v>
+        <v>0.1554367704833446</v>
       </c>
       <c r="E11">
-        <v>0.05008158534521101</v>
+        <v>0.07923657771191372</v>
       </c>
       <c r="F11">
-        <v>3.430099915603222</v>
+        <v>2.936445353842458</v>
       </c>
       <c r="G11">
-        <v>0.0007813842344537554</v>
+        <v>0.0025556275691872</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.802337533488654</v>
+        <v>2.648645685294809</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.070090069987259</v>
+        <v>2.665516571846467</v>
       </c>
       <c r="L11">
-        <v>0.08765687790589283</v>
+        <v>0.1333179666745892</v>
       </c>
       <c r="M11">
-        <v>1.223037455815984</v>
+        <v>0.6641044933817568</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04047490267023335</v>
+        <v>0.06829030719728735</v>
       </c>
       <c r="D12">
-        <v>0.06745124695239824</v>
+        <v>0.1551535055901034</v>
       </c>
       <c r="E12">
-        <v>0.0509126544794114</v>
+        <v>0.07932271181643102</v>
       </c>
       <c r="F12">
-        <v>3.506729243687062</v>
+        <v>2.949235661564614</v>
       </c>
       <c r="G12">
-        <v>0.0007786777101618378</v>
+        <v>0.002554224088293706</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.861646090310671</v>
+        <v>2.657928213287576</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.240987283029142</v>
+        <v>2.704746444338014</v>
       </c>
       <c r="L12">
-        <v>0.08892405903387157</v>
+        <v>0.133418007394134</v>
       </c>
       <c r="M12">
-        <v>1.256778421561066</v>
+        <v>0.6714739937772833</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04029584367261663</v>
+        <v>0.06826255728337571</v>
       </c>
       <c r="D13">
-        <v>0.06758110761574088</v>
+        <v>0.1552142101855303</v>
       </c>
       <c r="E13">
-        <v>0.05073283935211848</v>
+        <v>0.07930395511908372</v>
       </c>
       <c r="F13">
-        <v>3.490138151008694</v>
+        <v>2.946469872527587</v>
       </c>
       <c r="G13">
-        <v>0.0007792604394613944</v>
+        <v>0.002554525194561785</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.848801974843553</v>
+        <v>2.655919392097658</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.204080830021041</v>
+        <v>2.696288763449502</v>
       </c>
       <c r="L13">
-        <v>0.08864938865507099</v>
+        <v>0.1333960943334702</v>
       </c>
       <c r="M13">
-        <v>1.249490710273776</v>
+        <v>0.6698845136037477</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03971331282345147</v>
+        <v>0.06817264359469988</v>
       </c>
       <c r="D14">
-        <v>0.06800999237435335</v>
+        <v>0.1554133302808509</v>
       </c>
       <c r="E14">
-        <v>0.05014958757049826</v>
+        <v>0.07924357111372871</v>
       </c>
       <c r="F14">
-        <v>3.436365200747701</v>
+        <v>2.937492591539211</v>
       </c>
       <c r="G14">
-        <v>0.0007811614846947038</v>
+        <v>0.002555511581792991</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.807185243219251</v>
+        <v>2.649405013124351</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.084105072341174</v>
+        <v>2.668740061683422</v>
       </c>
       <c r="L14">
-        <v>0.08776034389157417</v>
+        <v>0.1333260315286751</v>
       </c>
       <c r="M14">
-        <v>1.225803998169653</v>
+        <v>0.6647097386236709</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03935756608966301</v>
+        <v>0.06811801875181089</v>
       </c>
       <c r="D15">
-        <v>0.06827676093809742</v>
+        <v>0.1555361793711612</v>
       </c>
       <c r="E15">
-        <v>0.04979471752345788</v>
+        <v>0.07920718782487413</v>
       </c>
       <c r="F15">
-        <v>3.40367934807</v>
+        <v>2.932026404648212</v>
       </c>
       <c r="G15">
-        <v>0.0007823264971169882</v>
+        <v>0.00255611916686535</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.781897673051148</v>
+        <v>2.64544302789119</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.010904795273689</v>
+        <v>2.651891509237885</v>
       </c>
       <c r="L15">
-        <v>0.08722084580379885</v>
+        <v>0.1332841915720664</v>
       </c>
       <c r="M15">
-        <v>1.211355364718926</v>
+        <v>0.6615468476240949</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03733451506534635</v>
+        <v>0.06781190256315739</v>
       </c>
       <c r="D16">
-        <v>0.06986501647228494</v>
+        <v>0.15625366811771</v>
       </c>
       <c r="E16">
-        <v>0.04779599757490161</v>
+        <v>0.07900793999117184</v>
       </c>
       <c r="F16">
-        <v>3.220021193206094</v>
+        <v>2.901200564834852</v>
       </c>
       <c r="G16">
-        <v>0.0007890144698478248</v>
+        <v>0.00255965313251459</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.639945188643296</v>
+        <v>2.623170164728151</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.595569578965183</v>
+        <v>2.555734165151421</v>
       </c>
       <c r="L16">
-        <v>0.08420319949907196</v>
+        <v>0.1330608842411038</v>
       </c>
       <c r="M16">
-        <v>1.129423143627548</v>
+        <v>0.6435257773847383</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03610650970182405</v>
+        <v>0.06763030525721092</v>
       </c>
       <c r="D17">
-        <v>0.07088961839394869</v>
+        <v>0.1567058264279133</v>
       </c>
       <c r="E17">
-        <v>0.04659921657508193</v>
+        <v>0.07889395947646349</v>
       </c>
       <c r="F17">
-        <v>3.1103988178821</v>
+        <v>2.882732849766199</v>
       </c>
       <c r="G17">
-        <v>0.00079313097701815</v>
+        <v>0.002561867753602118</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.555333735247885</v>
+        <v>2.609890074634379</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.344192356083738</v>
+        <v>2.497096170694931</v>
       </c>
       <c r="L17">
-        <v>0.08241420969635271</v>
+        <v>0.1329385540250954</v>
       </c>
       <c r="M17">
-        <v>1.079877261685183</v>
+        <v>0.6325632146227989</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03540468141611797</v>
+        <v>0.06752814121210804</v>
       </c>
       <c r="D18">
-        <v>0.07149635218011241</v>
+        <v>0.1569702927251164</v>
       </c>
       <c r="E18">
-        <v>0.04592098645124665</v>
+        <v>0.07883143240499635</v>
       </c>
       <c r="F18">
-        <v>3.048386591201989</v>
+        <v>2.872272684997938</v>
       </c>
       <c r="G18">
-        <v>0.0007955048899981028</v>
+        <v>0.002563158736059057</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.507512047796538</v>
+        <v>2.602392054515022</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.200756803422564</v>
+        <v>2.463497923630598</v>
       </c>
       <c r="L18">
-        <v>0.08140667604970986</v>
+        <v>0.132873570590391</v>
       </c>
       <c r="M18">
-        <v>1.051621887873495</v>
+        <v>0.6262918647116251</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03516779681357463</v>
+        <v>0.06749394371622941</v>
       </c>
       <c r="D19">
-        <v>0.07170467732728625</v>
+        <v>0.1570605903023612</v>
       </c>
       <c r="E19">
-        <v>0.04569302853358614</v>
+        <v>0.07881078239361372</v>
       </c>
       <c r="F19">
-        <v>3.027561700464446</v>
+        <v>2.868758796706743</v>
       </c>
       <c r="G19">
-        <v>0.0007963098295040519</v>
+        <v>0.002563598797947817</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.491459758769224</v>
+        <v>2.599877396945018</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.152379963911187</v>
+        <v>2.452144217623641</v>
       </c>
       <c r="L19">
-        <v>0.08106909723802858</v>
+        <v>0.1328524909527573</v>
       </c>
       <c r="M19">
-        <v>1.042094763851537</v>
+        <v>0.6241743309234096</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03623676164121292</v>
+        <v>0.06764940022639365</v>
       </c>
       <c r="D20">
-        <v>0.07077872306329525</v>
+        <v>0.1566572380382816</v>
       </c>
       <c r="E20">
-        <v>0.04672555340938089</v>
+        <v>0.07890577912747787</v>
       </c>
       <c r="F20">
-        <v>3.121958975933893</v>
+        <v>2.884681987572918</v>
       </c>
       <c r="G20">
-        <v>0.0007926921512974862</v>
+        <v>0.002561630225186205</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.564251973686197</v>
+        <v>2.611289224405084</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.37083057470096</v>
+        <v>2.503324949231285</v>
       </c>
       <c r="L20">
-        <v>0.08260240016573306</v>
+        <v>0.132951019483599</v>
       </c>
       <c r="M20">
-        <v>1.085125985165469</v>
+        <v>0.6337266750018529</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03988419120788222</v>
+        <v>0.06819895971860745</v>
       </c>
       <c r="D21">
-        <v>0.0678831646249769</v>
+        <v>0.1553546599364459</v>
       </c>
       <c r="E21">
-        <v>0.05032040076514832</v>
+        <v>0.079261181552301</v>
       </c>
       <c r="F21">
-        <v>3.452106671680696</v>
+        <v>2.940122626402939</v>
       </c>
       <c r="G21">
-        <v>0.0007806029909196125</v>
+        <v>0.0025552211487596</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.81936619098893</v>
+        <v>2.65131255123886</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.119284094986995</v>
+        <v>2.676826399555921</v>
       </c>
       <c r="L21">
-        <v>0.0880204127559594</v>
+        <v>0.1333463864737183</v>
       </c>
       <c r="M21">
-        <v>1.232748685963628</v>
+        <v>0.6662282762601848</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04231502605578186</v>
+        <v>0.06857828932101029</v>
       </c>
       <c r="D22">
-        <v>0.06616971861524945</v>
+        <v>0.1545428010252365</v>
       </c>
       <c r="E22">
-        <v>0.05277490624418846</v>
+        <v>0.07952047332899426</v>
       </c>
       <c r="F22">
-        <v>3.678919580555828</v>
+        <v>2.977815772899959</v>
       </c>
       <c r="G22">
-        <v>0.000772730705903563</v>
+        <v>0.002551184507661796</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.995047055098311</v>
+        <v>2.678733256179356</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.621054423791861</v>
+        <v>2.791374387937083</v>
       </c>
       <c r="L22">
-        <v>0.09178426844852794</v>
+        <v>0.1336528918943927</v>
       </c>
       <c r="M22">
-        <v>1.331862387453668</v>
+        <v>0.6877744743382408</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04101296759019135</v>
+        <v>0.06837399859168869</v>
       </c>
       <c r="D23">
-        <v>0.06706655921013294</v>
+        <v>0.1549724810707538</v>
       </c>
       <c r="E23">
-        <v>0.05145449293642557</v>
+        <v>0.07937961141050565</v>
       </c>
       <c r="F23">
-        <v>3.55676065153628</v>
+        <v>2.957563855382233</v>
       </c>
       <c r="G23">
-        <v>0.0007769310699721984</v>
+        <v>0.0025533250748877</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.900388598269913</v>
+        <v>2.663982075764594</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.35197070818009</v>
+        <v>2.730131908085298</v>
       </c>
       <c r="L23">
-        <v>0.08975335296184994</v>
+        <v>0.1334848911967512</v>
       </c>
       <c r="M23">
-        <v>1.278697314855592</v>
+        <v>0.6762469226128047</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03617786182967819</v>
+        <v>0.06764076041481104</v>
       </c>
       <c r="D24">
-        <v>0.0708288040339724</v>
+        <v>0.1566791907915928</v>
       </c>
       <c r="E24">
-        <v>0.04666840611108469</v>
+        <v>0.07890042611336412</v>
       </c>
       <c r="F24">
-        <v>3.11672949777406</v>
+        <v>2.883800293007909</v>
       </c>
       <c r="G24">
-        <v>0.0007928905213768286</v>
+        <v>0.002561737556450616</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.56021749099969</v>
+        <v>2.61065624258994</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.358784082815021</v>
+        <v>2.500508564961194</v>
       </c>
       <c r="L24">
-        <v>0.08251725424067757</v>
+        <v>0.1329453672013443</v>
       </c>
       <c r="M24">
-        <v>1.08275232835112</v>
+        <v>0.6332005774825262</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03113106166880186</v>
+        <v>0.06693735701151127</v>
       </c>
       <c r="D25">
-        <v>0.07554331845065576</v>
+        <v>0.1586880835063624</v>
       </c>
       <c r="E25">
-        <v>0.04188671771347252</v>
+        <v>0.07849943509397228</v>
       </c>
       <c r="F25">
-        <v>2.681090036419761</v>
+        <v>2.810416687391282</v>
       </c>
       <c r="G25">
-        <v>0.0008103538886605972</v>
+        <v>0.002571469668492707</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.224983749486498</v>
+        <v>2.558492911297563</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.330452746734636</v>
+        <v>2.257740859083697</v>
       </c>
       <c r="L25">
-        <v>0.0755184972155476</v>
+        <v>0.1325688690902922</v>
       </c>
       <c r="M25">
-        <v>0.8804512756083582</v>
+        <v>0.588068042496019</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06649561763787659</v>
+        <v>0.02752841319862398</v>
       </c>
       <c r="D2">
-        <v>0.1603103226534159</v>
+        <v>0.07947841319114346</v>
       </c>
       <c r="E2">
-        <v>0.07830362079268482</v>
+        <v>0.03862697267524418</v>
       </c>
       <c r="F2">
-        <v>2.761593524215925</v>
+        <v>2.385974479000495</v>
       </c>
       <c r="G2">
-        <v>0.002579208089904749</v>
+        <v>0.0008235457031155341</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.524608240905252</v>
+        <v>1.999092217566414</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.083135759181971</v>
+        <v>3.599710721970325</v>
       </c>
       <c r="L2">
-        <v>0.1324669927932725</v>
+        <v>0.07091730211921998</v>
       </c>
       <c r="M2">
-        <v>0.5559387455636937</v>
+        <v>0.7371597235115459</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06624426197548416</v>
+        <v>0.02514445244897701</v>
       </c>
       <c r="D3">
-        <v>0.16149832773025</v>
+        <v>0.08239414882291385</v>
       </c>
       <c r="E3">
-        <v>0.07823285078791997</v>
+        <v>0.03655276075504688</v>
       </c>
       <c r="F3">
-        <v>2.731702127650692</v>
+        <v>2.198677860807237</v>
       </c>
       <c r="G3">
-        <v>0.002584813209828425</v>
+        <v>0.0008327443310204297</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.504424526509567</v>
+        <v>1.856434859755893</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.96735084434971</v>
+        <v>3.116580688885165</v>
       </c>
       <c r="L3">
-        <v>0.1325066693301373</v>
+        <v>0.068084148665573</v>
       </c>
       <c r="M3">
-        <v>0.5348443598449464</v>
+        <v>0.6426977067392627</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06611379606925993</v>
+        <v>0.02370543393238478</v>
       </c>
       <c r="D4">
-        <v>0.1622712438345104</v>
+        <v>0.08429590982191826</v>
       </c>
       <c r="E4">
-        <v>0.07821993004529304</v>
+        <v>0.03533776978912506</v>
       </c>
       <c r="F4">
-        <v>2.714908764533206</v>
+        <v>2.089003233996834</v>
       </c>
       <c r="G4">
-        <v>0.002588433836526529</v>
+        <v>0.0008385342543205741</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.493390041777033</v>
+        <v>1.77323596248111</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.897504434658998</v>
+        <v>2.824662344910791</v>
       </c>
       <c r="L4">
-        <v>0.1325844558708127</v>
+        <v>0.06646825150792779</v>
       </c>
       <c r="M4">
-        <v>0.5222258120514596</v>
+        <v>0.5857523639896556</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06606666338279865</v>
+        <v>0.0231247688370857</v>
       </c>
       <c r="D5">
-        <v>0.162597110240327</v>
+        <v>0.0850974230776167</v>
       </c>
       <c r="E5">
-        <v>0.07822234305127829</v>
+        <v>0.03485631404121925</v>
       </c>
       <c r="F5">
-        <v>2.708455430729714</v>
+        <v>2.045523004393246</v>
       </c>
       <c r="G5">
-        <v>0.00258995445609898</v>
+        <v>0.0008409313233189868</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.489233263750421</v>
+        <v>1.740335561239007</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.869353997739353</v>
+        <v>2.706726378480795</v>
       </c>
       <c r="L5">
-        <v>0.1326295632877788</v>
+        <v>0.06583857832589857</v>
       </c>
       <c r="M5">
-        <v>0.5171673721863357</v>
+        <v>0.5627784611073423</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06605920236756901</v>
+        <v>0.02302868396795077</v>
       </c>
       <c r="D6">
-        <v>0.1626518772109478</v>
+        <v>0.08523207498541652</v>
       </c>
       <c r="E6">
-        <v>0.07822320750869238</v>
+        <v>0.03477716437670786</v>
       </c>
       <c r="F6">
-        <v>2.707407356550817</v>
+        <v>2.038372924502497</v>
       </c>
       <c r="G6">
-        <v>0.002590209687444234</v>
+        <v>0.0008413316811988804</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.488563510888326</v>
+        <v>1.734930316429697</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.864698494550794</v>
+        <v>2.687200450423489</v>
       </c>
       <c r="L6">
-        <v>0.1326378624621611</v>
+        <v>0.06573569908827537</v>
       </c>
       <c r="M6">
-        <v>0.5163324748472178</v>
+        <v>0.5589767406613078</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06611313595028889</v>
+        <v>0.02369758020401491</v>
       </c>
       <c r="D7">
-        <v>0.1622755945106498</v>
+        <v>0.0843066137675379</v>
       </c>
       <c r="E7">
-        <v>0.07821993149731377</v>
+        <v>0.03533122273347544</v>
       </c>
       <c r="F7">
-        <v>2.714820156054415</v>
+        <v>2.088412091753312</v>
       </c>
       <c r="G7">
-        <v>0.002588454161068619</v>
+        <v>0.0008385664272548832</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.49333260820984</v>
+        <v>1.772788318787974</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.897123523541694</v>
+        <v>2.823067884015074</v>
       </c>
       <c r="L7">
-        <v>0.1325850099466237</v>
+        <v>0.06645964570517293</v>
       </c>
       <c r="M7">
-        <v>0.5221572533562906</v>
+        <v>0.5854416334147032</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06640401505599414</v>
+        <v>0.02670098545942068</v>
       </c>
       <c r="D8">
-        <v>0.1607109019676543</v>
+        <v>0.08045966513703107</v>
       </c>
       <c r="E8">
-        <v>0.07827288245864672</v>
+        <v>0.03789895221764183</v>
       </c>
       <c r="F8">
-        <v>2.750961837763256</v>
+        <v>2.320209592858106</v>
       </c>
       <c r="G8">
-        <v>0.002581103667098179</v>
+        <v>0.0008266891525155121</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.517365914050288</v>
+        <v>1.948928552476687</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.042953990591627</v>
+        <v>3.432042367817473</v>
       </c>
       <c r="L8">
-        <v>0.1324695692967062</v>
+        <v>0.06991332748383172</v>
       </c>
       <c r="M8">
-        <v>0.5485960909962984</v>
+        <v>0.7043491963173381</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06716253052544374</v>
+        <v>0.03281156078381287</v>
       </c>
       <c r="D9">
-        <v>0.1579890664498329</v>
+        <v>0.07387715765186087</v>
       </c>
       <c r="E9">
-        <v>0.07861904982067713</v>
+        <v>0.04345283043515558</v>
       </c>
       <c r="F9">
-        <v>2.834319825688226</v>
+        <v>2.823371272750137</v>
       </c>
       <c r="G9">
-        <v>0.002568102885342613</v>
+        <v>0.0008044268254018576</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.575356072527441</v>
+        <v>2.334270327532934</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.338868504906145</v>
+        <v>4.672103425298758</v>
       </c>
       <c r="L9">
-        <v>0.1326683669336504</v>
+        <v>0.07778165714850616</v>
       </c>
       <c r="M9">
-        <v>0.6030988710625778</v>
+        <v>0.947587788631175</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06783293315621108</v>
+        <v>0.03747526948589552</v>
       </c>
       <c r="D10">
-        <v>0.1562026704976525</v>
+        <v>0.06975053610124249</v>
       </c>
       <c r="E10">
-        <v>0.0790213568048479</v>
+        <v>0.04793397801294219</v>
       </c>
       <c r="F10">
-        <v>2.903329865980538</v>
+        <v>3.232676389704693</v>
       </c>
       <c r="G10">
-        <v>0.002559402754675988</v>
+        <v>0.0007885455044803352</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.624704577132107</v>
+        <v>2.64971890363833</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.562442644498503</v>
+        <v>5.624416792028626</v>
       </c>
       <c r="L10">
-        <v>0.1330755724138726</v>
+        <v>0.08441034270074965</v>
       </c>
       <c r="M10">
-        <v>0.6447812977723402</v>
+        <v>1.135110990644009</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06816217095049382</v>
+        <v>0.03964522037467333</v>
       </c>
       <c r="D11">
-        <v>0.1554367704833446</v>
+        <v>0.06806076800889471</v>
       </c>
       <c r="E11">
-        <v>0.07923657771191372</v>
+        <v>0.05008158534517548</v>
       </c>
       <c r="F11">
-        <v>2.936445353842458</v>
+        <v>3.43009991560325</v>
       </c>
       <c r="G11">
-        <v>0.0025556275691872</v>
+        <v>0.0007813842344490526</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.648645685294809</v>
+        <v>2.802337533488668</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.665516571846467</v>
+        <v>6.070090069987373</v>
       </c>
       <c r="L11">
-        <v>0.1333179666745892</v>
+        <v>0.08765687790609888</v>
       </c>
       <c r="M11">
-        <v>0.6641044933817568</v>
+        <v>1.223037455815984</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06829030719728735</v>
+        <v>0.04047490267018361</v>
       </c>
       <c r="D12">
-        <v>0.1551535055901034</v>
+        <v>0.06745124695224547</v>
       </c>
       <c r="E12">
-        <v>0.07932271181643102</v>
+        <v>0.05091265447943982</v>
       </c>
       <c r="F12">
-        <v>2.949235661564614</v>
+        <v>3.506729243687062</v>
       </c>
       <c r="G12">
-        <v>0.002554224088293706</v>
+        <v>0.0007786777101589229</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.657928213287576</v>
+        <v>2.8616460903107</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.704746444338014</v>
+        <v>6.240987283029256</v>
       </c>
       <c r="L12">
-        <v>0.133418007394134</v>
+        <v>0.08892405903395684</v>
       </c>
       <c r="M12">
-        <v>0.6714739937772833</v>
+        <v>1.256778421561094</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06826255728337571</v>
+        <v>0.04029584367239636</v>
       </c>
       <c r="D13">
-        <v>0.1552142101855303</v>
+        <v>0.0675811076156414</v>
       </c>
       <c r="E13">
-        <v>0.07930395511908372</v>
+        <v>0.05073283935212203</v>
       </c>
       <c r="F13">
-        <v>2.946469872527587</v>
+        <v>3.490138151008722</v>
       </c>
       <c r="G13">
-        <v>0.002554525194561785</v>
+        <v>0.0007792604394629699</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.655919392097658</v>
+        <v>2.848801974843553</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.696288763449502</v>
+        <v>6.204080830021098</v>
       </c>
       <c r="L13">
-        <v>0.1333960943334702</v>
+        <v>0.08864938865497862</v>
       </c>
       <c r="M13">
-        <v>0.6698845136037477</v>
+        <v>1.249490710273804</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06817264359469988</v>
+        <v>0.03971331282370727</v>
       </c>
       <c r="D14">
-        <v>0.1554133302808509</v>
+        <v>0.06800999237413308</v>
       </c>
       <c r="E14">
-        <v>0.07924357111372871</v>
+        <v>0.05014958757047694</v>
       </c>
       <c r="F14">
-        <v>2.937492591539211</v>
+        <v>3.436365200747673</v>
       </c>
       <c r="G14">
-        <v>0.002555511581792991</v>
+        <v>0.0007811614846975741</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.649405013124351</v>
+        <v>2.807185243219237</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.668740061683422</v>
+        <v>6.084105072341174</v>
       </c>
       <c r="L14">
-        <v>0.1333260315286751</v>
+        <v>0.08776034389160969</v>
       </c>
       <c r="M14">
-        <v>0.6647097386236709</v>
+        <v>1.225803998169667</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06811801875181089</v>
+        <v>0.03935756609011776</v>
       </c>
       <c r="D15">
-        <v>0.1555361793711612</v>
+        <v>0.06827676093823598</v>
       </c>
       <c r="E15">
-        <v>0.07920718782487413</v>
+        <v>0.04979471752345788</v>
       </c>
       <c r="F15">
-        <v>2.932026404648212</v>
+        <v>3.40367934807</v>
       </c>
       <c r="G15">
-        <v>0.00255611916686535</v>
+        <v>0.0007823264971177496</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.64544302789119</v>
+        <v>2.781897673051162</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.651891509237885</v>
+        <v>6.010904795273689</v>
       </c>
       <c r="L15">
-        <v>0.1332841915720664</v>
+        <v>0.08722084580369938</v>
       </c>
       <c r="M15">
-        <v>0.6615468476240949</v>
+        <v>1.211355364718941</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06781190256315739</v>
+        <v>0.03733451506512608</v>
       </c>
       <c r="D16">
-        <v>0.15625366811771</v>
+        <v>0.06986501647216059</v>
       </c>
       <c r="E16">
-        <v>0.07900793999117184</v>
+        <v>0.04779599757490516</v>
       </c>
       <c r="F16">
-        <v>2.901200564834852</v>
+        <v>3.220021193206094</v>
       </c>
       <c r="G16">
-        <v>0.00255965313251459</v>
+        <v>0.0007890144697831023</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.623170164728151</v>
+        <v>2.639945188643296</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.555734165151421</v>
+        <v>5.595569578965126</v>
       </c>
       <c r="L16">
-        <v>0.1330608842411038</v>
+        <v>0.08420319949910038</v>
       </c>
       <c r="M16">
-        <v>0.6435257773847383</v>
+        <v>1.12942314362752</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06763030525721092</v>
+        <v>0.03610650970155405</v>
       </c>
       <c r="D17">
-        <v>0.1567058264279133</v>
+        <v>0.07088961839382435</v>
       </c>
       <c r="E17">
-        <v>0.07889395947646349</v>
+        <v>0.0465992165750766</v>
       </c>
       <c r="F17">
-        <v>2.882732849766199</v>
+        <v>3.1103988178821</v>
       </c>
       <c r="G17">
-        <v>0.002561867753602118</v>
+        <v>0.0007931309770085656</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.609890074634379</v>
+        <v>2.555333735247871</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.497096170694931</v>
+        <v>5.344192356083795</v>
       </c>
       <c r="L17">
-        <v>0.1329385540250954</v>
+        <v>0.08241420969644508</v>
       </c>
       <c r="M17">
-        <v>0.6325632146227989</v>
+        <v>1.079877261685169</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06752814121210804</v>
+        <v>0.03540468141635245</v>
       </c>
       <c r="D18">
-        <v>0.1569702927251164</v>
+        <v>0.07149635218036465</v>
       </c>
       <c r="E18">
-        <v>0.07883143240499635</v>
+        <v>0.04592098645126441</v>
       </c>
       <c r="F18">
-        <v>2.872272684997938</v>
+        <v>3.048386591201989</v>
       </c>
       <c r="G18">
-        <v>0.002563158736059057</v>
+        <v>0.00079550489005793</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.602392054515022</v>
+        <v>2.50751204779651</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.463497923630598</v>
+        <v>5.200756803422678</v>
       </c>
       <c r="L18">
-        <v>0.132873570590391</v>
+        <v>0.08140667604967433</v>
       </c>
       <c r="M18">
-        <v>0.6262918647116251</v>
+        <v>1.051621887873488</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06749394371622941</v>
+        <v>0.03516779681358884</v>
       </c>
       <c r="D19">
-        <v>0.1570605903023612</v>
+        <v>0.07170467732719032</v>
       </c>
       <c r="E19">
-        <v>0.07881078239361372</v>
+        <v>0.04569302853353641</v>
       </c>
       <c r="F19">
-        <v>2.868758796706743</v>
+        <v>3.027561700464446</v>
       </c>
       <c r="G19">
-        <v>0.002563598797947817</v>
+        <v>0.0007963098295788537</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.599877396945018</v>
+        <v>2.491459758769224</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.452144217623641</v>
+        <v>5.152379963911187</v>
       </c>
       <c r="L19">
-        <v>0.1328524909527573</v>
+        <v>0.08106909723795752</v>
       </c>
       <c r="M19">
-        <v>0.6241743309234096</v>
+        <v>1.042094763851516</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06764940022639365</v>
+        <v>0.03623676164119161</v>
       </c>
       <c r="D20">
-        <v>0.1566572380382816</v>
+        <v>0.07077872306315669</v>
       </c>
       <c r="E20">
-        <v>0.07890577912747787</v>
+        <v>0.04672555340937556</v>
       </c>
       <c r="F20">
-        <v>2.884681987572918</v>
+        <v>3.121958975933921</v>
       </c>
       <c r="G20">
-        <v>0.002561630225186205</v>
+        <v>0.0007926921512933688</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.611289224405084</v>
+        <v>2.564251973686183</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.503324949231285</v>
+        <v>5.370830574701131</v>
       </c>
       <c r="L20">
-        <v>0.132951019483599</v>
+        <v>0.08260240016562648</v>
       </c>
       <c r="M20">
-        <v>0.6337266750018529</v>
+        <v>1.085125985165476</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06819895971860745</v>
+        <v>0.03988419120788222</v>
       </c>
       <c r="D21">
-        <v>0.1553546599364459</v>
+        <v>0.06788316462478861</v>
       </c>
       <c r="E21">
-        <v>0.079261181552301</v>
+        <v>0.05032040076517674</v>
       </c>
       <c r="F21">
-        <v>2.940122626402939</v>
+        <v>3.452106671680696</v>
       </c>
       <c r="G21">
-        <v>0.0025552211487596</v>
+        <v>0.0007806029909878544</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.65131255123886</v>
+        <v>2.81936619098893</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.676826399555921</v>
+        <v>6.119284094986995</v>
       </c>
       <c r="L21">
-        <v>0.1333463864737183</v>
+        <v>0.08802041275619388</v>
       </c>
       <c r="M21">
-        <v>0.6662282762601848</v>
+        <v>1.232748685963614</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06857828932101029</v>
+        <v>0.04231502605549053</v>
       </c>
       <c r="D22">
-        <v>0.1545428010252365</v>
+        <v>0.06616971861524235</v>
       </c>
       <c r="E22">
-        <v>0.07952047332899426</v>
+        <v>0.0527749062441849</v>
       </c>
       <c r="F22">
-        <v>2.977815772899959</v>
+        <v>3.678919580555856</v>
       </c>
       <c r="G22">
-        <v>0.002551184507661796</v>
+        <v>0.0007727307057879564</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.678733256179356</v>
+        <v>2.99504705509834</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.791374387937083</v>
+        <v>6.621054423791918</v>
       </c>
       <c r="L22">
-        <v>0.1336528918943927</v>
+        <v>0.09178426844838583</v>
       </c>
       <c r="M22">
-        <v>0.6877744743382408</v>
+        <v>1.331862387453654</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06837399859168869</v>
+        <v>0.04101296759071715</v>
       </c>
       <c r="D23">
-        <v>0.1549724810707538</v>
+        <v>0.06706655921011162</v>
       </c>
       <c r="E23">
-        <v>0.07937961141050565</v>
+        <v>0.05145449293636162</v>
       </c>
       <c r="F23">
-        <v>2.957563855382233</v>
+        <v>3.556760651536308</v>
       </c>
       <c r="G23">
-        <v>0.0025533250748877</v>
+        <v>0.0007769310700289407</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.663982075764594</v>
+        <v>2.900388598269913</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.730131908085298</v>
+        <v>6.35197070817992</v>
       </c>
       <c r="L23">
-        <v>0.1334848911967512</v>
+        <v>0.08975335296172915</v>
       </c>
       <c r="M23">
-        <v>0.6762469226128047</v>
+        <v>1.278697314855577</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06764076041481104</v>
+        <v>0.03617786182989846</v>
       </c>
       <c r="D24">
-        <v>0.1566791907915928</v>
+        <v>0.07082880403383029</v>
       </c>
       <c r="E24">
-        <v>0.07890042611336412</v>
+        <v>0.04666840611108114</v>
       </c>
       <c r="F24">
-        <v>2.883800293007909</v>
+        <v>3.116729497774031</v>
       </c>
       <c r="G24">
-        <v>0.002561737556450616</v>
+        <v>0.0007928905213733239</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.61065624258994</v>
+        <v>2.560217490999719</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.500508564961194</v>
+        <v>5.358784082814964</v>
       </c>
       <c r="L24">
-        <v>0.1329453672013443</v>
+        <v>0.08251725424075573</v>
       </c>
       <c r="M24">
-        <v>0.6332005774825262</v>
+        <v>1.082752328351127</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06693735701151127</v>
+        <v>0.03113106166855317</v>
       </c>
       <c r="D25">
-        <v>0.1586880835063624</v>
+        <v>0.07554331845053852</v>
       </c>
       <c r="E25">
-        <v>0.07849943509397228</v>
+        <v>0.04188671771346719</v>
       </c>
       <c r="F25">
-        <v>2.810416687391282</v>
+        <v>2.681090036419818</v>
       </c>
       <c r="G25">
-        <v>0.002571469668492707</v>
+        <v>0.0008103538885429365</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.558492911297563</v>
+        <v>2.224983749486498</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.257740859083697</v>
+        <v>4.330452746734636</v>
       </c>
       <c r="L25">
-        <v>0.1325688690902922</v>
+        <v>0.07551849721551207</v>
       </c>
       <c r="M25">
-        <v>0.588068042496019</v>
+        <v>0.8804512756083369</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02752841319862398</v>
+        <v>0.1946310245718763</v>
       </c>
       <c r="D2">
-        <v>0.07947841319114346</v>
+        <v>0.02161599586726126</v>
       </c>
       <c r="E2">
-        <v>0.03862697267524418</v>
+        <v>0.07353148552336153</v>
       </c>
       <c r="F2">
-        <v>2.385974479000495</v>
+        <v>0.8324988694625546</v>
       </c>
       <c r="G2">
-        <v>0.0008235457031155341</v>
+        <v>0.7571454207328685</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002691951943895821</v>
       </c>
       <c r="I2">
-        <v>1.999092217566414</v>
+        <v>0.01277490984311003</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4688365909952523</v>
       </c>
       <c r="K2">
-        <v>3.599710721970325</v>
+        <v>0.6905731320173629</v>
       </c>
       <c r="L2">
-        <v>0.07091730211921998</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7371597235115459</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06204304897061119</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.46980774033689</v>
+      </c>
+      <c r="P2">
+        <v>4.194128455199774</v>
+      </c>
+      <c r="Q2">
+        <v>2.537118409313678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02514445244897701</v>
+        <v>0.1870002826792714</v>
       </c>
       <c r="D3">
-        <v>0.08239414882291385</v>
+        <v>0.01952154061330447</v>
       </c>
       <c r="E3">
-        <v>0.03655276075504688</v>
+        <v>0.07235882642798064</v>
       </c>
       <c r="F3">
-        <v>2.198677860807237</v>
+        <v>0.7452732466976357</v>
       </c>
       <c r="G3">
-        <v>0.0008327443310204297</v>
+        <v>0.6745535669521416</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001381518773749479</v>
       </c>
       <c r="I3">
-        <v>1.856434859755893</v>
+        <v>0.009380055874642856</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4329966086345678</v>
       </c>
       <c r="K3">
-        <v>3.116580688885165</v>
+        <v>0.6296066701948675</v>
       </c>
       <c r="L3">
-        <v>0.068084148665573</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6426977067392627</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06209638626632508</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.157235906726498</v>
+      </c>
+      <c r="P3">
+        <v>3.739172144597489</v>
+      </c>
+      <c r="Q3">
+        <v>2.286709935076033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02370543393238478</v>
+        <v>0.1821731051903939</v>
       </c>
       <c r="D4">
-        <v>0.08429590982191826</v>
+        <v>0.01823626299624692</v>
       </c>
       <c r="E4">
-        <v>0.03533776978912506</v>
+        <v>0.07161199257595241</v>
       </c>
       <c r="F4">
-        <v>2.089003233996834</v>
+        <v>0.6920957345323444</v>
       </c>
       <c r="G4">
-        <v>0.0008385342543205741</v>
+        <v>0.6241075781288004</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0007737354333103852</v>
       </c>
       <c r="I4">
-        <v>1.77323596248111</v>
+        <v>0.00751864582488837</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4111999861590192</v>
       </c>
       <c r="K4">
-        <v>2.824662344910791</v>
+        <v>0.5922810482978065</v>
       </c>
       <c r="L4">
-        <v>0.06646825150792779</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5857523639896556</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06210889877878234</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.964201432538417</v>
+      </c>
+      <c r="P4">
+        <v>3.459996036825061</v>
+      </c>
+      <c r="Q4">
+        <v>2.13394931580234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0231247688370857</v>
+        <v>0.1799369648012252</v>
       </c>
       <c r="D5">
-        <v>0.0850974230776167</v>
+        <v>0.0177378323224886</v>
       </c>
       <c r="E5">
-        <v>0.03485631404121925</v>
+        <v>0.07128022025323411</v>
       </c>
       <c r="F5">
-        <v>2.045523004393246</v>
+        <v>0.669937525135893</v>
       </c>
       <c r="G5">
-        <v>0.0008409313233189868</v>
+        <v>0.6029660934897692</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0005708384309639492</v>
       </c>
       <c r="I5">
-        <v>1.740335561239007</v>
+        <v>0.006858834079214837</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4020452259909035</v>
       </c>
       <c r="K5">
-        <v>2.706726378480795</v>
+        <v>0.5763518618508243</v>
       </c>
       <c r="L5">
-        <v>0.06583857832589857</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5627784611073423</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06210086864554487</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.884363399419385</v>
+      </c>
+      <c r="P5">
+        <v>3.346796552174823</v>
+      </c>
+      <c r="Q5">
+        <v>2.06988615923288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02302868396795077</v>
+        <v>0.1792806011919836</v>
       </c>
       <c r="D6">
-        <v>0.08523207498541652</v>
+        <v>0.0176862068576682</v>
       </c>
       <c r="E6">
-        <v>0.03477716437670786</v>
+        <v>0.07119996341316925</v>
       </c>
       <c r="F6">
-        <v>2.038372924502497</v>
+        <v>0.6655624901922081</v>
       </c>
       <c r="G6">
-        <v>0.0008413316811988804</v>
+        <v>0.5986743062426996</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0005381088851834637</v>
       </c>
       <c r="I6">
-        <v>1.734930316429697</v>
+        <v>0.00681668889283582</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4001356558967757</v>
       </c>
       <c r="K6">
-        <v>2.687200450423489</v>
+        <v>0.5728030913789368</v>
       </c>
       <c r="L6">
-        <v>0.06573569908827537</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5589767406613078</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06208976302410329</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.869988763391333</v>
+      </c>
+      <c r="P6">
+        <v>3.328650728256548</v>
+      </c>
+      <c r="Q6">
+        <v>2.056776606477371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02369758020401491</v>
+        <v>0.181367958370771</v>
       </c>
       <c r="D7">
-        <v>0.0843066137675379</v>
+        <v>0.01831491041659206</v>
       </c>
       <c r="E7">
-        <v>0.03533122273347544</v>
+        <v>0.07154043569810042</v>
       </c>
       <c r="F7">
-        <v>2.088412091753312</v>
+        <v>0.6898779953411633</v>
       </c>
       <c r="G7">
-        <v>0.0008385664272548832</v>
+        <v>0.6216734193015583</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0007650441880204806</v>
       </c>
       <c r="I7">
-        <v>1.772788318787974</v>
+        <v>0.007669619718869924</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4100028044908157</v>
       </c>
       <c r="K7">
-        <v>2.823067884015074</v>
+        <v>0.589588151005124</v>
       </c>
       <c r="L7">
-        <v>0.06645964570517293</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5854416334147032</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06208312483661915</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.960109079021407</v>
+      </c>
+      <c r="P7">
+        <v>3.460248253756049</v>
+      </c>
+      <c r="Q7">
+        <v>2.126281036913639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02670098545942068</v>
+        <v>0.1909985225308262</v>
       </c>
       <c r="D8">
-        <v>0.08045966513703107</v>
+        <v>0.02100806980399028</v>
       </c>
       <c r="E8">
-        <v>0.03789895221764183</v>
+        <v>0.07304541131393805</v>
       </c>
       <c r="F8">
-        <v>2.320209592858106</v>
+        <v>0.7997765842143849</v>
       </c>
       <c r="G8">
-        <v>0.0008266891525155121</v>
+        <v>0.7257367103438384</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00218491818607891</v>
       </c>
       <c r="I8">
-        <v>1.948928552476687</v>
+        <v>0.01173647646892828</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4550025968318465</v>
       </c>
       <c r="K8">
-        <v>3.432042367817473</v>
+        <v>0.6662210161760385</v>
       </c>
       <c r="L8">
-        <v>0.06991332748383172</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7043491963173381</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.06203317379119655</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.358236311728788</v>
+      </c>
+      <c r="P8">
+        <v>4.0396043764718</v>
+      </c>
+      <c r="Q8">
+        <v>2.44147469513166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03281156078381287</v>
+        <v>0.210200625492071</v>
       </c>
       <c r="D9">
-        <v>0.07387715765186087</v>
+        <v>0.02615069203030629</v>
       </c>
       <c r="E9">
-        <v>0.04345283043515558</v>
+        <v>0.07592090822085229</v>
       </c>
       <c r="F9">
-        <v>2.823371272750137</v>
+        <v>1.022295296057607</v>
       </c>
       <c r="G9">
-        <v>0.0008044268254018576</v>
+        <v>0.9362884645366449</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006703929262904695</v>
       </c>
       <c r="I9">
-        <v>2.334270327532934</v>
+        <v>0.02144862191490038</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5470636537463633</v>
       </c>
       <c r="K9">
-        <v>4.672103425298758</v>
+        <v>0.8221272015222212</v>
       </c>
       <c r="L9">
-        <v>0.07778165714850616</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.947587788631175</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.06182627972722488</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.13543335755601</v>
+      </c>
+      <c r="P9">
+        <v>5.174178267610159</v>
+      </c>
+      <c r="Q9">
+        <v>3.081223984233958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03747526948589552</v>
+        <v>0.220768970752097</v>
       </c>
       <c r="D10">
-        <v>0.06975053610124249</v>
+        <v>0.03040978611057099</v>
       </c>
       <c r="E10">
-        <v>0.04793397801294219</v>
+        <v>0.0768096775713798</v>
       </c>
       <c r="F10">
-        <v>3.232676389704693</v>
+        <v>1.178775473913902</v>
       </c>
       <c r="G10">
-        <v>0.0007885455044803352</v>
+        <v>1.082146935709602</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01119304483025063</v>
       </c>
       <c r="I10">
-        <v>2.64971890363833</v>
+        <v>0.02993281752212429</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6106560524470979</v>
       </c>
       <c r="K10">
-        <v>5.624416792028626</v>
+        <v>0.9262100265441049</v>
       </c>
       <c r="L10">
-        <v>0.08441034270074965</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.135110990644009</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.06171359195086046</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.669787490552949</v>
+      </c>
+      <c r="P10">
+        <v>6.027896196505935</v>
+      </c>
+      <c r="Q10">
+        <v>3.524004022759584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03964522037467333</v>
+        <v>0.2045523160695844</v>
       </c>
       <c r="D11">
-        <v>0.06806076800889471</v>
+        <v>0.0363847480093753</v>
       </c>
       <c r="E11">
-        <v>0.05008158534517548</v>
+        <v>0.07343152109178908</v>
       </c>
       <c r="F11">
-        <v>3.43009991560325</v>
+        <v>1.169473643377216</v>
       </c>
       <c r="G11">
-        <v>0.0007813842344490526</v>
+        <v>1.058501664777651</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0298505329605625</v>
       </c>
       <c r="I11">
-        <v>2.802337533488668</v>
+        <v>0.03278034822269582</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5949855298203772</v>
       </c>
       <c r="K11">
-        <v>6.070090069987373</v>
+        <v>0.8807104383705067</v>
       </c>
       <c r="L11">
-        <v>0.08765687790609888</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.223037455815984</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.07535238257819188</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>3.649763254494061</v>
+      </c>
+      <c r="P11">
+        <v>6.576985924687051</v>
+      </c>
+      <c r="Q11">
+        <v>3.441264829667375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04047490267018361</v>
+        <v>0.1928128438614678</v>
       </c>
       <c r="D12">
-        <v>0.06745124695224547</v>
+        <v>0.04077570799469044</v>
       </c>
       <c r="E12">
-        <v>0.05091265447943982</v>
+        <v>0.07839626105061903</v>
       </c>
       <c r="F12">
-        <v>3.506729243687062</v>
+        <v>1.130900348969462</v>
       </c>
       <c r="G12">
-        <v>0.0007786777101589229</v>
+        <v>1.010943392429965</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06808474976277523</v>
       </c>
       <c r="I12">
-        <v>2.8616460903107</v>
+        <v>0.03314574356340483</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5697501640220111</v>
       </c>
       <c r="K12">
-        <v>6.240987283029256</v>
+        <v>0.824825451540228</v>
       </c>
       <c r="L12">
-        <v>0.08892405903395684</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.256778421561094</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1045053127295787</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>3.523667906152085</v>
+      </c>
+      <c r="P12">
+        <v>6.863473929991358</v>
+      </c>
+      <c r="Q12">
+        <v>3.287693925651439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04029584367239636</v>
+        <v>0.1826418258341675</v>
       </c>
       <c r="D13">
-        <v>0.0675811076156414</v>
+        <v>0.04428651587210197</v>
       </c>
       <c r="E13">
-        <v>0.05073283935212203</v>
+        <v>0.08975896284659335</v>
       </c>
       <c r="F13">
-        <v>3.490138151008722</v>
+        <v>1.064509683120264</v>
       </c>
       <c r="G13">
-        <v>0.0007792604394629699</v>
+        <v>0.9389217738632709</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1228881207681667</v>
       </c>
       <c r="I13">
-        <v>2.848801974843553</v>
+        <v>0.0317962381561534</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5340161088936384</v>
       </c>
       <c r="K13">
-        <v>6.204080830021098</v>
+        <v>0.7540089275705668</v>
       </c>
       <c r="L13">
-        <v>0.08864938865497862</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.249490710273804</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1466529554949219</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>3.305042934491027</v>
+      </c>
+      <c r="P13">
+        <v>6.96433736145741</v>
+      </c>
+      <c r="Q13">
+        <v>3.060199862608528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03971331282370727</v>
+        <v>0.176591587696719</v>
       </c>
       <c r="D14">
-        <v>0.06800999237413308</v>
+        <v>0.04639956997063877</v>
       </c>
       <c r="E14">
-        <v>0.05014958757047694</v>
+        <v>0.1015289614463839</v>
       </c>
       <c r="F14">
-        <v>3.436365200747673</v>
+        <v>1.005298771510567</v>
       </c>
       <c r="G14">
-        <v>0.0007811614846975741</v>
+        <v>0.8773443979557669</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1713903372669421</v>
       </c>
       <c r="I14">
-        <v>2.807185243219237</v>
+        <v>0.03017407339754019</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5041741417217906</v>
       </c>
       <c r="K14">
-        <v>6.084105072341174</v>
+        <v>0.6976001164234802</v>
       </c>
       <c r="L14">
-        <v>0.08776034389160969</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.225803998169667</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1838018098004142</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>3.110540851215575</v>
+      </c>
+      <c r="P14">
+        <v>6.951084261888354</v>
+      </c>
+      <c r="Q14">
+        <v>2.867144560718458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03935756609011776</v>
+        <v>0.1750222713178848</v>
       </c>
       <c r="D15">
-        <v>0.06827676093823598</v>
+        <v>0.04671716084421718</v>
       </c>
       <c r="E15">
-        <v>0.04979471752345788</v>
+        <v>0.104723276861975</v>
       </c>
       <c r="F15">
-        <v>3.40367934807</v>
+        <v>0.9844401154962839</v>
       </c>
       <c r="G15">
-        <v>0.0007823264971177496</v>
+        <v>0.8565113464554202</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1835216884994253</v>
       </c>
       <c r="I15">
-        <v>2.781897673051162</v>
+        <v>0.0294898621357822</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4943756467385469</v>
       </c>
       <c r="K15">
-        <v>6.010904795273689</v>
+        <v>0.6798857970335419</v>
       </c>
       <c r="L15">
-        <v>0.08722084580369938</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.211355364718941</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1930303141921215</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>3.042915428820507</v>
+      </c>
+      <c r="P15">
+        <v>6.907863559815098</v>
+      </c>
+      <c r="Q15">
+        <v>2.802437418422642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03733451506512608</v>
+        <v>0.1725584078032032</v>
       </c>
       <c r="D16">
-        <v>0.06986501647216059</v>
+        <v>0.04409216266003568</v>
       </c>
       <c r="E16">
-        <v>0.04779599757490516</v>
+        <v>0.10166551910946</v>
       </c>
       <c r="F16">
-        <v>3.220021193206094</v>
+        <v>0.9303646605108611</v>
       </c>
       <c r="G16">
-        <v>0.0007890144697831023</v>
+        <v>0.8083964261523136</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.168953196644992</v>
       </c>
       <c r="I16">
-        <v>2.639945188643296</v>
+        <v>0.0261075479550863</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4741407152100408</v>
       </c>
       <c r="K16">
-        <v>5.595569578965126</v>
+        <v>0.6495677435273706</v>
       </c>
       <c r="L16">
-        <v>0.08420319949910038</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.12942314362752</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1830043783821012</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>2.862147578512818</v>
+      </c>
+      <c r="P16">
+        <v>6.514715626060706</v>
+      </c>
+      <c r="Q16">
+        <v>2.657887659745569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03610650970155405</v>
+        <v>0.1734919645490924</v>
       </c>
       <c r="D17">
-        <v>0.07088961839382435</v>
+        <v>0.04095411260773574</v>
       </c>
       <c r="E17">
-        <v>0.0465992165750766</v>
+        <v>0.0924422324491232</v>
       </c>
       <c r="F17">
-        <v>3.1103988178821</v>
+        <v>0.9202294957092221</v>
       </c>
       <c r="G17">
-        <v>0.0007931309770085656</v>
+        <v>0.8039541242325186</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1302338794182418</v>
       </c>
       <c r="I17">
-        <v>2.555333735247871</v>
+        <v>0.02441756746164359</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.474390549715082</v>
       </c>
       <c r="K17">
-        <v>5.344192356083795</v>
+        <v>0.6558769448982176</v>
       </c>
       <c r="L17">
-        <v>0.08241420969644508</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.079877261685169</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1543698344852302</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>2.825745095068612</v>
+      </c>
+      <c r="P17">
+        <v>6.221486604605843</v>
+      </c>
+      <c r="Q17">
+        <v>2.648871056268746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03540468141635245</v>
+        <v>0.1792043244955259</v>
       </c>
       <c r="D18">
-        <v>0.07149635218036465</v>
+        <v>0.03707999381113325</v>
       </c>
       <c r="E18">
-        <v>0.04592098645126441</v>
+        <v>0.08056028218607381</v>
       </c>
       <c r="F18">
-        <v>3.048386591201989</v>
+        <v>0.9480568536530996</v>
       </c>
       <c r="G18">
-        <v>0.00079550489005793</v>
+        <v>0.8383455807276903</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07727375505113088</v>
       </c>
       <c r="I18">
-        <v>2.50751204779651</v>
+        <v>0.02374785253780587</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4930920981186659</v>
       </c>
       <c r="K18">
-        <v>5.200756803422678</v>
+        <v>0.6968093429688338</v>
       </c>
       <c r="L18">
-        <v>0.08140667604967433</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.051621887873488</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1149150465457467</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>2.912239384044597</v>
+      </c>
+      <c r="P18">
+        <v>5.98079939624688</v>
+      </c>
+      <c r="Q18">
+        <v>2.760855668382732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03516779681358884</v>
+        <v>0.1900234605958779</v>
       </c>
       <c r="D19">
-        <v>0.07170467732719032</v>
+        <v>0.03333993455997941</v>
       </c>
       <c r="E19">
-        <v>0.04569302853353641</v>
+        <v>0.07299426940728271</v>
       </c>
       <c r="F19">
-        <v>3.027561700464446</v>
+        <v>1.001281016171589</v>
       </c>
       <c r="G19">
-        <v>0.0007963098295788537</v>
+        <v>0.8984621365818697</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03276289922442999</v>
       </c>
       <c r="I19">
-        <v>2.491459758769224</v>
+        <v>0.0243845514189216</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5236546797313082</v>
       </c>
       <c r="K19">
-        <v>5.152379963911187</v>
+        <v>0.7597272557318391</v>
       </c>
       <c r="L19">
-        <v>0.08106909723795752</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.042094763851516</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08097810423946328</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>3.087664626217517</v>
+      </c>
+      <c r="P19">
+        <v>5.805608046277825</v>
+      </c>
+      <c r="Q19">
+        <v>2.952253925617441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03623676164119161</v>
+        <v>0.215551513015285</v>
       </c>
       <c r="D20">
-        <v>0.07077872306315669</v>
+        <v>0.02958708540669264</v>
       </c>
       <c r="E20">
-        <v>0.04672555340937556</v>
+        <v>0.07634151907304076</v>
       </c>
       <c r="F20">
-        <v>3.121958975933921</v>
+        <v>1.130951889077551</v>
       </c>
       <c r="G20">
-        <v>0.0007926921512933688</v>
+        <v>1.0363797780374</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.009839228917185139</v>
       </c>
       <c r="I20">
-        <v>2.564251973686183</v>
+        <v>0.02807321723488521</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5902309997380399</v>
       </c>
       <c r="K20">
-        <v>5.370830574701131</v>
+        <v>0.8904844150191238</v>
       </c>
       <c r="L20">
-        <v>0.08260240016562648</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.085125985165476</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.06164541531048462</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.519037211468714</v>
+      </c>
+      <c r="P20">
+        <v>5.81005442912442</v>
+      </c>
+      <c r="Q20">
+        <v>3.384108461127482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03988419120788222</v>
+        <v>0.2279357453543369</v>
       </c>
       <c r="D21">
-        <v>0.06788316462478861</v>
+        <v>0.03217454121296726</v>
       </c>
       <c r="E21">
-        <v>0.05032040076517674</v>
+        <v>0.0787531718485539</v>
       </c>
       <c r="F21">
-        <v>3.452106671680696</v>
+        <v>1.267304647101881</v>
       </c>
       <c r="G21">
-        <v>0.0007806029909878544</v>
+        <v>1.166178013424769</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01391403792505069</v>
       </c>
       <c r="I21">
-        <v>2.81936619098893</v>
+        <v>0.03530542266458081</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6479850884919074</v>
       </c>
       <c r="K21">
-        <v>6.119284094986995</v>
+        <v>0.9884560393684581</v>
       </c>
       <c r="L21">
-        <v>0.08802041275619388</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.232748685963614</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.06140499567511415</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>3.974775521812589</v>
+      </c>
+      <c r="P21">
+        <v>6.437507276281792</v>
+      </c>
+      <c r="Q21">
+        <v>3.780503154274754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04231502605549053</v>
+        <v>0.2356751289704135</v>
       </c>
       <c r="D22">
-        <v>0.06616971861524235</v>
+        <v>0.03396777061696099</v>
       </c>
       <c r="E22">
-        <v>0.0527749062441849</v>
+        <v>0.07984515205998655</v>
       </c>
       <c r="F22">
-        <v>3.678919580555856</v>
+        <v>1.355246469846506</v>
       </c>
       <c r="G22">
-        <v>0.0007727307057879564</v>
+        <v>1.249467749468778</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01685136110251173</v>
       </c>
       <c r="I22">
-        <v>2.99504705509834</v>
+        <v>0.04010688997622491</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6850154768178527</v>
       </c>
       <c r="K22">
-        <v>6.621054423791918</v>
+        <v>1.050909759111875</v>
       </c>
       <c r="L22">
-        <v>0.09178426844838583</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.331862387453654</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.06129418935385966</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.260660763960473</v>
+      </c>
+      <c r="P22">
+        <v>6.854654594289798</v>
+      </c>
+      <c r="Q22">
+        <v>4.034797096410216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04101296759071715</v>
+        <v>0.2324666882780946</v>
       </c>
       <c r="D23">
-        <v>0.06706655921011162</v>
+        <v>0.03290298384154156</v>
       </c>
       <c r="E23">
-        <v>0.05145449293636162</v>
+        <v>0.07933703892368804</v>
       </c>
       <c r="F23">
-        <v>3.556760651536308</v>
+        <v>1.31057666332724</v>
       </c>
       <c r="G23">
-        <v>0.0007769310700289407</v>
+        <v>1.207575332900888</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01527988826691329</v>
       </c>
       <c r="I23">
-        <v>2.900388598269913</v>
+        <v>0.03732777106525909</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6665158740785841</v>
       </c>
       <c r="K23">
-        <v>6.35197070817992</v>
+        <v>1.020550385863984</v>
       </c>
       <c r="L23">
-        <v>0.08975335296172915</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.278697314855577</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.06137451913859771</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.111857265767441</v>
+      </c>
+      <c r="P23">
+        <v>6.629777018122468</v>
+      </c>
+      <c r="Q23">
+        <v>3.907151836887579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03617786182989846</v>
+        <v>0.2187311930944631</v>
       </c>
       <c r="D24">
-        <v>0.07082880403383029</v>
+        <v>0.02905579074812081</v>
       </c>
       <c r="E24">
-        <v>0.04666840611108114</v>
+        <v>0.07728669699320356</v>
       </c>
       <c r="F24">
-        <v>3.116729497774031</v>
+        <v>1.139382312053854</v>
       </c>
       <c r="G24">
-        <v>0.0007928905213733239</v>
+        <v>1.046190721352133</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.009899884925221186</v>
       </c>
       <c r="I24">
-        <v>2.560217490999719</v>
+        <v>0.02779041329141663</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5952032740422908</v>
       </c>
       <c r="K24">
-        <v>5.358784082814964</v>
+        <v>0.9016319645321218</v>
       </c>
       <c r="L24">
-        <v>0.08251725424075573</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.082752328351127</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.06162954859167513</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.540488851561165</v>
+      </c>
+      <c r="P24">
+        <v>5.782611108098365</v>
+      </c>
+      <c r="Q24">
+        <v>3.415311459425482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03113106166855317</v>
+        <v>0.2037112714933187</v>
       </c>
       <c r="D25">
-        <v>0.07554331845053852</v>
+        <v>0.02491568920119391</v>
       </c>
       <c r="E25">
-        <v>0.04188671771346719</v>
+        <v>0.07504446588345859</v>
       </c>
       <c r="F25">
-        <v>2.681090036419818</v>
+        <v>0.9581037911058701</v>
       </c>
       <c r="G25">
-        <v>0.0008103538885429365</v>
+        <v>0.8750154379575434</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.005249976670932133</v>
       </c>
       <c r="I25">
-        <v>2.224983749486498</v>
+        <v>0.01884597531615206</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5199549895971245</v>
       </c>
       <c r="K25">
-        <v>4.330452746734636</v>
+        <v>0.775229132598291</v>
       </c>
       <c r="L25">
-        <v>0.07551849721551207</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8804512756083369</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.06185805478417228</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.920590322090831</v>
+      </c>
+      <c r="P25">
+        <v>4.870301520466853</v>
+      </c>
+      <c r="Q25">
+        <v>2.894405852339588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1946310245718763</v>
+        <v>0.1597868331921877</v>
       </c>
       <c r="D2">
-        <v>0.02161599586726126</v>
+        <v>0.02622797561416945</v>
       </c>
       <c r="E2">
-        <v>0.07353148552336153</v>
+        <v>0.06900176806082969</v>
       </c>
       <c r="F2">
-        <v>0.8324988694625546</v>
+        <v>0.7503599028140115</v>
       </c>
       <c r="G2">
-        <v>0.7571454207328685</v>
+        <v>0.6468089893045033</v>
       </c>
       <c r="H2">
-        <v>0.002691951943895821</v>
+        <v>0.002152100073548047</v>
       </c>
       <c r="I2">
-        <v>0.01277490984311003</v>
+        <v>0.01120066321219237</v>
       </c>
       <c r="J2">
-        <v>0.4688365909952523</v>
+        <v>0.4744109426127494</v>
       </c>
       <c r="K2">
-        <v>0.6905731320173629</v>
+        <v>0.5849989935292328</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2897544465504041</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1704258467232478</v>
       </c>
       <c r="N2">
-        <v>0.06204304897061119</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.46980774033689</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.194128455199774</v>
+        <v>0.06166403670666676</v>
       </c>
       <c r="Q2">
-        <v>2.537118409313678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.335166910012916</v>
+      </c>
+      <c r="R2">
+        <v>4.2755016943199</v>
+      </c>
+      <c r="S2">
+        <v>2.249904772635091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1870002826792714</v>
+        <v>0.1545922896946301</v>
       </c>
       <c r="D3">
-        <v>0.01952154061330447</v>
+        <v>0.02329502353603274</v>
       </c>
       <c r="E3">
-        <v>0.07235882642798064</v>
+        <v>0.06830541291425973</v>
       </c>
       <c r="F3">
-        <v>0.7452732466976357</v>
+        <v>0.6762489050325087</v>
       </c>
       <c r="G3">
-        <v>0.6745535669521416</v>
+        <v>0.5783480945421644</v>
       </c>
       <c r="H3">
-        <v>0.001381518773749479</v>
+        <v>0.001097201329908537</v>
       </c>
       <c r="I3">
-        <v>0.009380055874642856</v>
+        <v>0.008452988850327969</v>
       </c>
       <c r="J3">
-        <v>0.4329966086345678</v>
+        <v>0.4437432727252428</v>
       </c>
       <c r="K3">
-        <v>0.6296066701948675</v>
+        <v>0.539715508194277</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2827063183667633</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1438877334971167</v>
       </c>
       <c r="N3">
-        <v>0.06209638626632508</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.157235906726498</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.739172144597489</v>
+        <v>0.06243498188003205</v>
       </c>
       <c r="Q3">
-        <v>2.286709935076033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.044365538792903</v>
+      </c>
+      <c r="R3">
+        <v>3.807101087555253</v>
+      </c>
+      <c r="S3">
+        <v>2.044797631896671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1821731051903939</v>
+        <v>0.1512958803463018</v>
       </c>
       <c r="D4">
-        <v>0.01823626299624692</v>
+        <v>0.02150509522672905</v>
       </c>
       <c r="E4">
-        <v>0.07161199257595241</v>
+        <v>0.06785437617928203</v>
       </c>
       <c r="F4">
-        <v>0.6920957345323444</v>
+        <v>0.630928994493587</v>
       </c>
       <c r="G4">
-        <v>0.6241075781288004</v>
+        <v>0.5364856882266906</v>
       </c>
       <c r="H4">
-        <v>0.0007737354333103852</v>
+        <v>0.0006093221331466836</v>
       </c>
       <c r="I4">
-        <v>0.00751864582488837</v>
+        <v>0.006935787154496165</v>
       </c>
       <c r="J4">
-        <v>0.4111999861590192</v>
+        <v>0.4248753368230354</v>
       </c>
       <c r="K4">
-        <v>0.5922810482978065</v>
+        <v>0.5118252644841448</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2780772921271648</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1283408417627285</v>
       </c>
       <c r="N4">
-        <v>0.06210889877878234</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.964201432538417</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.459996036825061</v>
+        <v>0.06291950770479027</v>
       </c>
       <c r="Q4">
-        <v>2.13394931580234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.864523119055363</v>
+      </c>
+      <c r="R4">
+        <v>3.519739589193961</v>
+      </c>
+      <c r="S4">
+        <v>1.919198587271552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1799369648012252</v>
+        <v>0.14980664646421</v>
       </c>
       <c r="D5">
-        <v>0.0177378323224886</v>
+        <v>0.02080728320942171</v>
       </c>
       <c r="E5">
-        <v>0.07128022025323411</v>
+        <v>0.06764857281329317</v>
       </c>
       <c r="F5">
-        <v>0.669937525135893</v>
+        <v>0.6119631627192419</v>
       </c>
       <c r="G5">
-        <v>0.6029660934897692</v>
+        <v>0.5188713494105599</v>
       </c>
       <c r="H5">
-        <v>0.0005708384309639492</v>
+        <v>0.000446946118590752</v>
       </c>
       <c r="I5">
-        <v>0.006858834079214837</v>
+        <v>0.006417834964086211</v>
       </c>
       <c r="J5">
-        <v>0.4020452259909035</v>
+        <v>0.4168680639748032</v>
       </c>
       <c r="K5">
-        <v>0.5763518618508243</v>
+        <v>0.4997688834946672</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2758231446769912</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1219777097099062</v>
       </c>
       <c r="N5">
-        <v>0.06210086864554487</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.884363399419385</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3.346796552174823</v>
+        <v>0.06312057056831422</v>
       </c>
       <c r="Q5">
-        <v>2.06988615923288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.790055013834376</v>
+      </c>
+      <c r="R5">
+        <v>3.403219442404009</v>
+      </c>
+      <c r="S5">
+        <v>1.866197415355344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1792806011919836</v>
+        <v>0.1494154781918677</v>
       </c>
       <c r="D6">
-        <v>0.0176862068576682</v>
+        <v>0.02072737384657231</v>
       </c>
       <c r="E6">
-        <v>0.07119996341316925</v>
+        <v>0.0675947388804039</v>
       </c>
       <c r="F6">
-        <v>0.6655624901922081</v>
+        <v>0.6081601313031086</v>
       </c>
       <c r="G6">
-        <v>0.5986743062426996</v>
+        <v>0.5152270770369682</v>
       </c>
       <c r="H6">
-        <v>0.0005381088851834637</v>
+        <v>0.0004207570682550621</v>
       </c>
       <c r="I6">
-        <v>0.00681668889283582</v>
+        <v>0.006417062045458444</v>
       </c>
       <c r="J6">
-        <v>0.4001356558967757</v>
+        <v>0.4151617722399408</v>
       </c>
       <c r="K6">
-        <v>0.5728030913789368</v>
+        <v>0.4969513266740506</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2750884494795898</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.120670899695785</v>
       </c>
       <c r="N6">
-        <v>0.06208976302410329</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.869988763391333</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3.328650728256548</v>
+        <v>0.06315580489672734</v>
       </c>
       <c r="Q6">
-        <v>2.056776606477371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.776614401484053</v>
+      </c>
+      <c r="R6">
+        <v>3.384519005611082</v>
+      </c>
+      <c r="S6">
+        <v>1.855097478321682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.181367958370771</v>
+        <v>0.1509165067425968</v>
       </c>
       <c r="D7">
-        <v>0.01831491041659206</v>
+        <v>0.02165458811712995</v>
       </c>
       <c r="E7">
-        <v>0.07154043569810042</v>
+        <v>0.06780037130544092</v>
       </c>
       <c r="F7">
-        <v>0.6898779953411633</v>
+        <v>0.6277730184951338</v>
       </c>
       <c r="G7">
-        <v>0.6216734193015583</v>
+        <v>0.5385567349127314</v>
       </c>
       <c r="H7">
-        <v>0.0007650441880204806</v>
+        <v>0.00060038714332733</v>
       </c>
       <c r="I7">
-        <v>0.007669619718869924</v>
+        <v>0.007129304670796088</v>
       </c>
       <c r="J7">
-        <v>0.4100028044908157</v>
+        <v>0.4173156480635498</v>
       </c>
       <c r="K7">
-        <v>0.589588151005124</v>
+        <v>0.5086612015708454</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2767570416878726</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1272687817080467</v>
       </c>
       <c r="N7">
-        <v>0.06208312483661915</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.960109079021407</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3.460248253756049</v>
+        <v>0.06292319574052785</v>
       </c>
       <c r="Q7">
-        <v>2.126281036913639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.859491219262253</v>
+      </c>
+      <c r="R7">
+        <v>3.520630450914496</v>
+      </c>
+      <c r="S7">
+        <v>1.908305372619765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1909985225308262</v>
+        <v>0.1576159229338714</v>
       </c>
       <c r="D8">
-        <v>0.02100806980399028</v>
+        <v>0.02555248675957955</v>
       </c>
       <c r="E8">
-        <v>0.07304541131393805</v>
+        <v>0.06870572453943846</v>
       </c>
       <c r="F8">
-        <v>0.7997765842143849</v>
+        <v>0.7186878319801053</v>
       </c>
       <c r="G8">
-        <v>0.7257367103438384</v>
+        <v>0.6348980617531339</v>
       </c>
       <c r="H8">
-        <v>0.00218491818607891</v>
+        <v>0.001733653207547481</v>
       </c>
       <c r="I8">
-        <v>0.01173647646892828</v>
+        <v>0.01042993852110108</v>
       </c>
       <c r="J8">
-        <v>0.4550025968318465</v>
+        <v>0.4412913802113394</v>
       </c>
       <c r="K8">
-        <v>0.6662210161760385</v>
+        <v>0.5638722555840658</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2851354811484654</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1591780725149654</v>
       </c>
       <c r="N8">
-        <v>0.06203317379119655</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.358236311728788</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>4.0396043764718</v>
+        <v>0.06192755259505334</v>
       </c>
       <c r="Q8">
-        <v>2.44147469513166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.227510199160648</v>
+      </c>
+      <c r="R8">
+        <v>4.118652788538412</v>
+      </c>
+      <c r="S8">
+        <v>2.157802111133861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.210200625492071</v>
+        <v>0.1705176848081553</v>
       </c>
       <c r="D9">
-        <v>0.02615069203030629</v>
+        <v>0.03289717722201857</v>
       </c>
       <c r="E9">
-        <v>0.07592090822085229</v>
+        <v>0.07039275128230438</v>
       </c>
       <c r="F9">
-        <v>1.022295296057607</v>
+        <v>0.9060565012256632</v>
       </c>
       <c r="G9">
-        <v>0.9362884645366449</v>
+        <v>0.8135283324137248</v>
       </c>
       <c r="H9">
-        <v>0.006703929262904695</v>
+        <v>0.005365410768381762</v>
       </c>
       <c r="I9">
-        <v>0.02144862191490038</v>
+        <v>0.0181106367060293</v>
       </c>
       <c r="J9">
-        <v>0.5470636537463633</v>
+        <v>0.5128556100872999</v>
       </c>
       <c r="K9">
-        <v>0.8221272015222212</v>
+        <v>0.6784311679454831</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3020116264596098</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2301447493020135</v>
       </c>
       <c r="N9">
-        <v>0.06182627972722488</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.13543335755601</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>5.174178267610159</v>
+        <v>0.06008260965168644</v>
       </c>
       <c r="Q9">
-        <v>3.081223984233958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>2.94809002815623</v>
+      </c>
+      <c r="R9">
+        <v>5.28782323281979</v>
+      </c>
+      <c r="S9">
+        <v>2.67615419750669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.220768970752097</v>
+        <v>0.1786607593085616</v>
       </c>
       <c r="D10">
-        <v>0.03040978611057099</v>
+        <v>0.03926429962311317</v>
       </c>
       <c r="E10">
-        <v>0.0768096775713798</v>
+        <v>0.07084707086071163</v>
       </c>
       <c r="F10">
-        <v>1.178775473913902</v>
+        <v>1.030370266238236</v>
       </c>
       <c r="G10">
-        <v>1.082146935709602</v>
+        <v>0.9629776677308683</v>
       </c>
       <c r="H10">
-        <v>0.01119304483025063</v>
+        <v>0.008962386963568658</v>
       </c>
       <c r="I10">
-        <v>0.02993281752212429</v>
+        <v>0.02474274795594766</v>
       </c>
       <c r="J10">
-        <v>0.6106560524470979</v>
+        <v>0.5244804050113032</v>
       </c>
       <c r="K10">
-        <v>0.9262100265441049</v>
+        <v>0.7486822913890876</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3080535125667794</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2805809761838844</v>
       </c>
       <c r="N10">
-        <v>0.06171359195086046</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.669787490552949</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>6.027896196505935</v>
+        <v>0.05810527069820193</v>
       </c>
       <c r="Q10">
-        <v>3.524004022759584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.435413428259196</v>
+      </c>
+      <c r="R10">
+        <v>6.17082085912358</v>
+      </c>
+      <c r="S10">
+        <v>3.00827339579476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2045523160695844</v>
+        <v>0.176026881469018</v>
       </c>
       <c r="D11">
-        <v>0.0363847480093753</v>
+        <v>0.04734552004968151</v>
       </c>
       <c r="E11">
-        <v>0.07343152109178908</v>
+        <v>0.0705698876571299</v>
       </c>
       <c r="F11">
-        <v>1.169473643377216</v>
+        <v>1.007709117514324</v>
       </c>
       <c r="G11">
-        <v>1.058501664777651</v>
+        <v>0.9989058243298672</v>
       </c>
       <c r="H11">
-        <v>0.0298505329605625</v>
+        <v>0.02744100536509464</v>
       </c>
       <c r="I11">
-        <v>0.03278034822269582</v>
+        <v>0.02703677512357583</v>
       </c>
       <c r="J11">
-        <v>0.5949855298203772</v>
+        <v>0.4378516998791326</v>
       </c>
       <c r="K11">
-        <v>0.8807104383705067</v>
+        <v>0.6993514819220934</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2821158264283596</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2710524329027777</v>
       </c>
       <c r="N11">
-        <v>0.07535238257819188</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.649763254494061</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>6.576985924687051</v>
+        <v>0.06356471295478983</v>
       </c>
       <c r="Q11">
-        <v>3.441264829667375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>3.402838246951987</v>
+      </c>
+      <c r="R11">
+        <v>6.735403311978416</v>
+      </c>
+      <c r="S11">
+        <v>2.884029853245039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1928128438614678</v>
+        <v>0.1747932097107645</v>
       </c>
       <c r="D12">
-        <v>0.04077570799469044</v>
+        <v>0.05282733870279088</v>
       </c>
       <c r="E12">
-        <v>0.07839626105061903</v>
+        <v>0.07788364519827162</v>
       </c>
       <c r="F12">
-        <v>1.130900348969462</v>
+        <v>0.9688617302962683</v>
       </c>
       <c r="G12">
-        <v>1.010943392429965</v>
+        <v>0.9834949903201391</v>
       </c>
       <c r="H12">
-        <v>0.06808474976277523</v>
+        <v>0.0656981063678046</v>
       </c>
       <c r="I12">
-        <v>0.03314574356340483</v>
+        <v>0.02728380426150334</v>
       </c>
       <c r="J12">
-        <v>0.5697501640220111</v>
+        <v>0.3884696063005038</v>
       </c>
       <c r="K12">
-        <v>0.824825451540228</v>
+        <v>0.6500456353244672</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2619190740104429</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2546981506820529</v>
       </c>
       <c r="N12">
-        <v>0.1045053127295787</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.523667906152085</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>6.863473929991358</v>
+        <v>0.08624909357995847</v>
       </c>
       <c r="Q12">
-        <v>3.287693925651439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>3.280476211005094</v>
+      </c>
+      <c r="R12">
+        <v>7.026025190738892</v>
+      </c>
+      <c r="S12">
+        <v>2.733497856500634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1826418258341675</v>
+        <v>0.1741388570528208</v>
       </c>
       <c r="D13">
-        <v>0.04428651587210197</v>
+        <v>0.05641194857859944</v>
       </c>
       <c r="E13">
-        <v>0.08975896284659335</v>
+        <v>0.0913781456559537</v>
       </c>
       <c r="F13">
-        <v>1.064509683120264</v>
+        <v>0.9149636127597489</v>
       </c>
       <c r="G13">
-        <v>0.9389217738632709</v>
+        <v>0.9133362135892469</v>
       </c>
       <c r="H13">
-        <v>0.1228881207681667</v>
+        <v>0.1206982979783362</v>
       </c>
       <c r="I13">
-        <v>0.0317962381561534</v>
+        <v>0.02627177388914603</v>
       </c>
       <c r="J13">
-        <v>0.5340161088936384</v>
+        <v>0.3709811558008056</v>
       </c>
       <c r="K13">
-        <v>0.7540089275705668</v>
+        <v>0.5959748075285987</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2437543250975551</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2317345597140346</v>
       </c>
       <c r="N13">
-        <v>0.1466529554949219</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.305042934491027</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>6.96433736145741</v>
+        <v>0.1232907885130885</v>
       </c>
       <c r="Q13">
-        <v>3.060199862608528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>3.080973267269556</v>
+      </c>
+      <c r="R13">
+        <v>7.120200900450925</v>
+      </c>
+      <c r="S13">
+        <v>2.552450379334317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.176591587696719</v>
+        <v>0.1743685253527261</v>
       </c>
       <c r="D14">
-        <v>0.04639956997063877</v>
+        <v>0.05807963764779345</v>
       </c>
       <c r="E14">
-        <v>0.1015289614463839</v>
+        <v>0.1045979306909999</v>
       </c>
       <c r="F14">
-        <v>1.005298771510567</v>
+        <v>0.8698428879130518</v>
       </c>
       <c r="G14">
-        <v>0.8773443979557669</v>
+        <v>0.8409424139168635</v>
       </c>
       <c r="H14">
-        <v>0.1713903372669421</v>
+        <v>0.1694036995292265</v>
       </c>
       <c r="I14">
-        <v>0.03017407339754019</v>
+        <v>0.02509370964114499</v>
       </c>
       <c r="J14">
-        <v>0.5041741417217906</v>
+        <v>0.3709811047623504</v>
       </c>
       <c r="K14">
-        <v>0.6976001164234802</v>
+        <v>0.5554222442721795</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2315585534019533</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.212669348980711</v>
       </c>
       <c r="N14">
-        <v>0.1838018098004142</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.110540851215575</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>6.951084261888354</v>
+        <v>0.1577052026492964</v>
       </c>
       <c r="Q14">
-        <v>2.867144560718458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>2.90626730887675</v>
+      </c>
+      <c r="R14">
+        <v>7.09736964060005</v>
+      </c>
+      <c r="S14">
+        <v>2.409825098448863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1750222713178848</v>
+        <v>0.1743587935148625</v>
       </c>
       <c r="D15">
-        <v>0.04671716084421718</v>
+        <v>0.05807954719117703</v>
       </c>
       <c r="E15">
-        <v>0.104723276861975</v>
+        <v>0.1081651441965228</v>
       </c>
       <c r="F15">
-        <v>0.9844401154962839</v>
+        <v>0.854807380345278</v>
       </c>
       <c r="G15">
-        <v>0.8565113464554202</v>
+        <v>0.8126031960079132</v>
       </c>
       <c r="H15">
-        <v>0.1835216884994253</v>
+        <v>0.1816255614927798</v>
       </c>
       <c r="I15">
-        <v>0.0294898621357822</v>
+        <v>0.02463612682512029</v>
       </c>
       <c r="J15">
-        <v>0.4943756467385469</v>
+        <v>0.3759369089848121</v>
       </c>
       <c r="K15">
-        <v>0.6798857970335419</v>
+        <v>0.5435161873918801</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2285484971881644</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2063263792313208</v>
       </c>
       <c r="N15">
-        <v>0.1930303141921215</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.042915428820507</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>6.907863559815098</v>
+        <v>0.1666101508309836</v>
       </c>
       <c r="Q15">
-        <v>2.802437418422642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>2.846359212572153</v>
+      </c>
+      <c r="R15">
+        <v>7.049682023527339</v>
+      </c>
+      <c r="S15">
+        <v>2.365460581767763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1725584078032032</v>
+        <v>0.1710190098174031</v>
       </c>
       <c r="D16">
-        <v>0.04409216266003568</v>
+        <v>0.05365887539654324</v>
       </c>
       <c r="E16">
-        <v>0.10166551910946</v>
+        <v>0.1051883692352433</v>
       </c>
       <c r="F16">
-        <v>0.9303646605108611</v>
+        <v>0.8211175408361413</v>
       </c>
       <c r="G16">
-        <v>0.8083964261523136</v>
+        <v>0.7252644280017932</v>
       </c>
       <c r="H16">
-        <v>0.168953196644992</v>
+        <v>0.167451409772184</v>
       </c>
       <c r="I16">
-        <v>0.0261075479550863</v>
+        <v>0.02214358184144061</v>
       </c>
       <c r="J16">
-        <v>0.4741407152100408</v>
+        <v>0.4200059115668893</v>
       </c>
       <c r="K16">
-        <v>0.6495677435273706</v>
+        <v>0.5297334692272386</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2302854213555747</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1923144279583227</v>
       </c>
       <c r="N16">
-        <v>0.1830043783821012</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.862147578512818</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>6.514715626060706</v>
+        <v>0.1593231742881613</v>
       </c>
       <c r="Q16">
-        <v>2.657887659745569</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>2.690821628335399</v>
+      </c>
+      <c r="R16">
+        <v>6.638131792835168</v>
+      </c>
+      <c r="S16">
+        <v>2.289545643636245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1734919645490924</v>
+        <v>0.1679294073717656</v>
       </c>
       <c r="D17">
-        <v>0.04095411260773574</v>
+        <v>0.04958997960088141</v>
       </c>
       <c r="E17">
-        <v>0.0924422324491232</v>
+        <v>0.09510955408662269</v>
       </c>
       <c r="F17">
-        <v>0.9202294957092221</v>
+        <v>0.8177276579201305</v>
       </c>
       <c r="G17">
-        <v>0.8039541242325186</v>
+        <v>0.7023695321779826</v>
       </c>
       <c r="H17">
-        <v>0.1302338794182418</v>
+        <v>0.1289141275010763</v>
       </c>
       <c r="I17">
-        <v>0.02441756746164359</v>
+        <v>0.02087941176850183</v>
       </c>
       <c r="J17">
-        <v>0.474390549715082</v>
+        <v>0.4475865335323874</v>
       </c>
       <c r="K17">
-        <v>0.6558769448982176</v>
+        <v>0.539655820590248</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.238008697634065</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1910876573313161</v>
       </c>
       <c r="N17">
-        <v>0.1543698344852302</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.825745095068612</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>6.221486604605843</v>
+        <v>0.1339518249023968</v>
       </c>
       <c r="Q17">
-        <v>2.648871056268746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>2.661924794624341</v>
+      </c>
+      <c r="R17">
+        <v>6.337296120016333</v>
+      </c>
+      <c r="S17">
+        <v>2.301942367399278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1792043244955259</v>
+        <v>0.1659168422761486</v>
       </c>
       <c r="D18">
-        <v>0.03707999381113325</v>
+        <v>0.04518329897621243</v>
       </c>
       <c r="E18">
-        <v>0.08056028218607381</v>
+        <v>0.08145927879613879</v>
       </c>
       <c r="F18">
-        <v>0.9480568536530996</v>
+        <v>0.8437580938784919</v>
       </c>
       <c r="G18">
-        <v>0.8383455807276903</v>
+        <v>0.7234431389182703</v>
       </c>
       <c r="H18">
-        <v>0.07727375505113088</v>
+        <v>0.07598482335853163</v>
       </c>
       <c r="I18">
-        <v>0.02374785253780587</v>
+        <v>0.02027014152657713</v>
       </c>
       <c r="J18">
-        <v>0.4930920981186659</v>
+        <v>0.4754672648780769</v>
       </c>
       <c r="K18">
-        <v>0.6968093429688338</v>
+        <v>0.5748508171808879</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2532966388417748</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2019059821663092</v>
       </c>
       <c r="N18">
-        <v>0.1149150465457467</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.912239384044597</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>5.98079939624688</v>
+        <v>0.09876992711003396</v>
       </c>
       <c r="Q18">
-        <v>2.760855668382732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>2.744003347955982</v>
+      </c>
+      <c r="R18">
+        <v>6.095451231759284</v>
+      </c>
+      <c r="S18">
+        <v>2.405251446831187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1900234605958779</v>
+        <v>0.1668977635294944</v>
       </c>
       <c r="D19">
-        <v>0.03333993455997941</v>
+        <v>0.04116844779507289</v>
       </c>
       <c r="E19">
-        <v>0.07299426940728271</v>
+        <v>0.07144181124367943</v>
       </c>
       <c r="F19">
-        <v>1.001281016171589</v>
+        <v>0.8895678967970611</v>
       </c>
       <c r="G19">
-        <v>0.8984621365818697</v>
+        <v>0.7716654751333891</v>
       </c>
       <c r="H19">
-        <v>0.03276289922442999</v>
+        <v>0.03136390998574257</v>
       </c>
       <c r="I19">
-        <v>0.0243845514189216</v>
+        <v>0.0207961465136437</v>
       </c>
       <c r="J19">
-        <v>0.5236546797313082</v>
+        <v>0.5047850582169531</v>
       </c>
       <c r="K19">
-        <v>0.7597272557318391</v>
+        <v>0.6257571387734231</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2727904491171813</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2208016778560093</v>
       </c>
       <c r="N19">
-        <v>0.08097810423946328</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.087664626217517</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>5.805608046277825</v>
+        <v>0.07003769222021461</v>
       </c>
       <c r="Q19">
-        <v>2.952253925617441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>2.906754939807001</v>
+      </c>
+      <c r="R19">
+        <v>5.923413707807697</v>
+      </c>
+      <c r="S19">
+        <v>2.568191718704583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.215551513015285</v>
+        <v>0.175496914729818</v>
       </c>
       <c r="D20">
-        <v>0.02958708540669264</v>
+        <v>0.03769944542979431</v>
       </c>
       <c r="E20">
-        <v>0.07634151907304076</v>
+        <v>0.07055555004556346</v>
       </c>
       <c r="F20">
-        <v>1.130951889077551</v>
+        <v>0.9956860070217175</v>
       </c>
       <c r="G20">
-        <v>1.0363797780374</v>
+        <v>0.9009304022025191</v>
       </c>
       <c r="H20">
-        <v>0.009839228917185139</v>
+        <v>0.007893594450535613</v>
       </c>
       <c r="I20">
-        <v>0.02807321723488521</v>
+        <v>0.02363199405874905</v>
       </c>
       <c r="J20">
-        <v>0.5902309997380399</v>
+        <v>0.5404917626809151</v>
       </c>
       <c r="K20">
-        <v>0.8904844150191238</v>
+        <v>0.7257940195676156</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3049083688275616</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2653547578804378</v>
       </c>
       <c r="N20">
-        <v>0.06164541531048462</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.519037211468714</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>5.81005442912442</v>
+        <v>0.05860723525351497</v>
       </c>
       <c r="Q20">
-        <v>3.384108461127482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.301838367050365</v>
+      </c>
+      <c r="R20">
+        <v>5.942603372703275</v>
+      </c>
+      <c r="S20">
+        <v>2.91411121295485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2279357453543369</v>
+        <v>0.1837583191240171</v>
       </c>
       <c r="D21">
-        <v>0.03217454121296726</v>
+        <v>0.04313400638885412</v>
       </c>
       <c r="E21">
-        <v>0.0787531718485539</v>
+        <v>0.07208591548889576</v>
       </c>
       <c r="F21">
-        <v>1.267304647101881</v>
+        <v>1.08316151836344</v>
       </c>
       <c r="G21">
-        <v>1.166178013424769</v>
+        <v>1.118247589232396</v>
       </c>
       <c r="H21">
-        <v>0.01391403792505069</v>
+        <v>0.01100766478147516</v>
       </c>
       <c r="I21">
-        <v>0.03530542266458081</v>
+        <v>0.02896930111369933</v>
       </c>
       <c r="J21">
-        <v>0.6479850884919074</v>
+        <v>0.4460058761322756</v>
       </c>
       <c r="K21">
-        <v>0.9884560393684581</v>
+        <v>0.7790426916238289</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.309130029238986</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3047861825130056</v>
       </c>
       <c r="N21">
-        <v>0.06140499567511415</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3.974775521812589</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>6.437507276281792</v>
+        <v>0.05829120279918865</v>
       </c>
       <c r="Q21">
-        <v>3.780503154274754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>3.695135911402332</v>
+      </c>
+      <c r="R21">
+        <v>6.607468664363296</v>
+      </c>
+      <c r="S21">
+        <v>3.140529342091327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2356751289704135</v>
+        <v>0.1892331767116229</v>
       </c>
       <c r="D22">
-        <v>0.03396777061696099</v>
+        <v>0.04694968473171457</v>
       </c>
       <c r="E22">
-        <v>0.07984515205998655</v>
+        <v>0.07283803397342536</v>
       </c>
       <c r="F22">
-        <v>1.355246469846506</v>
+        <v>1.137233749404899</v>
       </c>
       <c r="G22">
-        <v>1.249467749468778</v>
+        <v>1.271345032379571</v>
       </c>
       <c r="H22">
-        <v>0.01685136110251173</v>
+        <v>0.0132467033018312</v>
       </c>
       <c r="I22">
-        <v>0.04010688997622491</v>
+        <v>0.03235380962043966</v>
       </c>
       <c r="J22">
-        <v>0.6850154768178527</v>
+        <v>0.3838748069543811</v>
       </c>
       <c r="K22">
-        <v>1.050909759111875</v>
+        <v>0.8111650052639376</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3108227998462354</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3300592006739222</v>
       </c>
       <c r="N22">
-        <v>0.06129418935385966</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4.260660763960473</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>6.854654594289798</v>
+        <v>0.05772185919764716</v>
       </c>
       <c r="Q22">
-        <v>4.034797096410216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>3.938664151935129</v>
+      </c>
+      <c r="R22">
+        <v>7.050246828714023</v>
+      </c>
+      <c r="S22">
+        <v>3.277265323605661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2324666882780946</v>
+        <v>0.1865928248854125</v>
       </c>
       <c r="D23">
-        <v>0.03290298384154156</v>
+        <v>0.0445919399831638</v>
       </c>
       <c r="E23">
-        <v>0.07933703892368804</v>
+        <v>0.07246923000110517</v>
       </c>
       <c r="F23">
-        <v>1.31057666332724</v>
+        <v>1.113485159524828</v>
       </c>
       <c r="G23">
-        <v>1.207575332900888</v>
+        <v>1.178878798188663</v>
       </c>
       <c r="H23">
-        <v>0.01527988826691329</v>
+        <v>0.01206597001980031</v>
       </c>
       <c r="I23">
-        <v>0.03732777106525909</v>
+        <v>0.03029425312427403</v>
       </c>
       <c r="J23">
-        <v>0.6665158740785841</v>
+        <v>0.4309670003529504</v>
       </c>
       <c r="K23">
-        <v>1.020550385863984</v>
+        <v>0.7987010837720163</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3115535006993753</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3184434444707094</v>
       </c>
       <c r="N23">
-        <v>0.06137451913859771</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4.111857265767441</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>6.629777018122468</v>
+        <v>0.05799038996534733</v>
       </c>
       <c r="Q23">
-        <v>3.907151836887579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>3.81547283379075</v>
+      </c>
+      <c r="R23">
+        <v>6.809699791543892</v>
+      </c>
+      <c r="S23">
+        <v>3.222125809457083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2187311930944631</v>
+        <v>0.176617371671588</v>
       </c>
       <c r="D24">
-        <v>0.02905579074812081</v>
+        <v>0.03707537534959471</v>
       </c>
       <c r="E24">
-        <v>0.07728669699320356</v>
+        <v>0.0711587818698951</v>
       </c>
       <c r="F24">
-        <v>1.139382312053854</v>
+        <v>1.003310155077102</v>
       </c>
       <c r="G24">
-        <v>1.046190721352133</v>
+        <v>0.908625919553856</v>
       </c>
       <c r="H24">
-        <v>0.009899884925221186</v>
+        <v>0.007930422276361038</v>
       </c>
       <c r="I24">
-        <v>0.02779041329141663</v>
+        <v>0.02322368112354134</v>
       </c>
       <c r="J24">
-        <v>0.5952032740422908</v>
+        <v>0.5460514989033243</v>
       </c>
       <c r="K24">
-        <v>0.9016319645321218</v>
+        <v>0.735273043901195</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3085864077663487</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2688288857845151</v>
       </c>
       <c r="N24">
-        <v>0.06162954859167513</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.540488851561165</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>5.782611108098365</v>
+        <v>0.05918853976747807</v>
       </c>
       <c r="Q24">
-        <v>3.415311459425482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.321998341255224</v>
+      </c>
+      <c r="R24">
+        <v>5.915194763517889</v>
+      </c>
+      <c r="S24">
+        <v>2.941991884331713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2037112714933187</v>
+        <v>0.1664722640542511</v>
       </c>
       <c r="D25">
-        <v>0.02491568920119391</v>
+        <v>0.03099440758584748</v>
       </c>
       <c r="E25">
-        <v>0.07504446588345859</v>
+        <v>0.06986401860194835</v>
       </c>
       <c r="F25">
-        <v>0.9581037911058701</v>
+        <v>0.8534408973213488</v>
       </c>
       <c r="G25">
-        <v>0.8750154379575434</v>
+        <v>0.7550805327897763</v>
       </c>
       <c r="H25">
-        <v>0.005249976670932133</v>
+        <v>0.004202283373656135</v>
       </c>
       <c r="I25">
-        <v>0.01884597531615206</v>
+        <v>0.01622944368567314</v>
       </c>
       <c r="J25">
-        <v>0.5199549895971245</v>
+        <v>0.5007521763019867</v>
       </c>
       <c r="K25">
-        <v>0.775229132598291</v>
+        <v>0.6445641738189707</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.296587247187432</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2091854851873052</v>
       </c>
       <c r="N25">
-        <v>0.06185805478417228</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.920590322090831</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>4.870301520466853</v>
+        <v>0.06059448769543163</v>
       </c>
       <c r="Q25">
-        <v>2.894405852339588</v>
+        <v>2.750641413200412</v>
+      </c>
+      <c r="R25">
+        <v>4.973501467060203</v>
+      </c>
+      <c r="S25">
+        <v>2.529532921116186</v>
       </c>
     </row>
   </sheetData>
